--- a/XbufferExcelToDataUnityProject/Conf/Excels/author_info10.xlsx
+++ b/XbufferExcelToDataUnityProject/Conf/Excels/author_info10.xlsx
@@ -79,2992 +79,2992 @@
     <t>TangHuan</t>
   </si>
   <si>
-    <t>1+3+5+7</t>
+    <t>1#3#5#7</t>
   </si>
   <si>
     <t>ZhouXiaoYun</t>
   </si>
   <si>
-    <t>2+4+6+8</t>
+    <t>2#4#6#8</t>
   </si>
   <si>
     <t>范江</t>
   </si>
   <si>
-    <t>3+6+9</t>
-  </si>
-  <si>
-    <t>1+3+5+8</t>
-  </si>
-  <si>
-    <t>2+4+6+9</t>
-  </si>
-  <si>
-    <t>3+6+10</t>
-  </si>
-  <si>
-    <t>1+3+5+9</t>
-  </si>
-  <si>
-    <t>2+4+6+10</t>
-  </si>
-  <si>
-    <t>3+6+11</t>
-  </si>
-  <si>
-    <t>1+3+5+10</t>
-  </si>
-  <si>
-    <t>2+4+6+11</t>
-  </si>
-  <si>
-    <t>3+6+12</t>
-  </si>
-  <si>
-    <t>1+3+5+11</t>
-  </si>
-  <si>
-    <t>2+4+6+12</t>
-  </si>
-  <si>
-    <t>3+6+13</t>
-  </si>
-  <si>
-    <t>1+3+5+12</t>
-  </si>
-  <si>
-    <t>2+4+6+13</t>
-  </si>
-  <si>
-    <t>3+6+14</t>
-  </si>
-  <si>
-    <t>1+3+5+13</t>
-  </si>
-  <si>
-    <t>2+4+6+14</t>
-  </si>
-  <si>
-    <t>3+6+15</t>
-  </si>
-  <si>
-    <t>1+3+5+14</t>
-  </si>
-  <si>
-    <t>2+4+6+15</t>
-  </si>
-  <si>
-    <t>3+6+16</t>
-  </si>
-  <si>
-    <t>1+3+5+15</t>
-  </si>
-  <si>
-    <t>2+4+6+16</t>
-  </si>
-  <si>
-    <t>3+6+17</t>
-  </si>
-  <si>
-    <t>1+3+5+16</t>
-  </si>
-  <si>
-    <t>2+4+6+17</t>
-  </si>
-  <si>
-    <t>3+6+18</t>
-  </si>
-  <si>
-    <t>1+3+5+17</t>
-  </si>
-  <si>
-    <t>2+4+6+18</t>
-  </si>
-  <si>
-    <t>3+6+19</t>
-  </si>
-  <si>
-    <t>1+3+5+18</t>
-  </si>
-  <si>
-    <t>2+4+6+19</t>
-  </si>
-  <si>
-    <t>3+6+20</t>
-  </si>
-  <si>
-    <t>1+3+5+19</t>
-  </si>
-  <si>
-    <t>2+4+6+20</t>
-  </si>
-  <si>
-    <t>3+6+21</t>
-  </si>
-  <si>
-    <t>1+3+5+20</t>
-  </si>
-  <si>
-    <t>2+4+6+21</t>
-  </si>
-  <si>
-    <t>3+6+22</t>
-  </si>
-  <si>
-    <t>1+3+5+21</t>
-  </si>
-  <si>
-    <t>2+4+6+22</t>
-  </si>
-  <si>
-    <t>3+6+23</t>
-  </si>
-  <si>
-    <t>1+3+5+22</t>
-  </si>
-  <si>
-    <t>2+4+6+23</t>
-  </si>
-  <si>
-    <t>3+6+24</t>
-  </si>
-  <si>
-    <t>1+3+5+23</t>
-  </si>
-  <si>
-    <t>2+4+6+24</t>
-  </si>
-  <si>
-    <t>3+6+25</t>
-  </si>
-  <si>
-    <t>1+3+5+24</t>
-  </si>
-  <si>
-    <t>2+4+6+25</t>
-  </si>
-  <si>
-    <t>3+6+26</t>
-  </si>
-  <si>
-    <t>1+3+5+25</t>
-  </si>
-  <si>
-    <t>2+4+6+26</t>
-  </si>
-  <si>
-    <t>3+6+27</t>
-  </si>
-  <si>
-    <t>1+3+5+26</t>
-  </si>
-  <si>
-    <t>2+4+6+27</t>
-  </si>
-  <si>
-    <t>3+6+28</t>
-  </si>
-  <si>
-    <t>1+3+5+27</t>
-  </si>
-  <si>
-    <t>2+4+6+28</t>
-  </si>
-  <si>
-    <t>3+6+29</t>
-  </si>
-  <si>
-    <t>1+3+5+28</t>
-  </si>
-  <si>
-    <t>2+4+6+29</t>
-  </si>
-  <si>
-    <t>3+6+30</t>
-  </si>
-  <si>
-    <t>1+3+5+29</t>
-  </si>
-  <si>
-    <t>2+4+6+30</t>
-  </si>
-  <si>
-    <t>3+6+31</t>
-  </si>
-  <si>
-    <t>1+3+5+30</t>
-  </si>
-  <si>
-    <t>2+4+6+31</t>
-  </si>
-  <si>
-    <t>3+6+32</t>
-  </si>
-  <si>
-    <t>1+3+5+31</t>
-  </si>
-  <si>
-    <t>2+4+6+32</t>
-  </si>
-  <si>
-    <t>3+6+33</t>
-  </si>
-  <si>
-    <t>1+3+5+32</t>
-  </si>
-  <si>
-    <t>2+4+6+33</t>
-  </si>
-  <si>
-    <t>3+6+34</t>
-  </si>
-  <si>
-    <t>1+3+5+33</t>
-  </si>
-  <si>
-    <t>2+4+6+34</t>
-  </si>
-  <si>
-    <t>3+6+35</t>
-  </si>
-  <si>
-    <t>1+3+5+34</t>
-  </si>
-  <si>
-    <t>2+4+6+35</t>
-  </si>
-  <si>
-    <t>3+6+36</t>
-  </si>
-  <si>
-    <t>1+3+5+35</t>
-  </si>
-  <si>
-    <t>2+4+6+36</t>
-  </si>
-  <si>
-    <t>3+6+37</t>
-  </si>
-  <si>
-    <t>1+3+5+36</t>
-  </si>
-  <si>
-    <t>2+4+6+37</t>
-  </si>
-  <si>
-    <t>3+6+38</t>
-  </si>
-  <si>
-    <t>1+3+5+37</t>
-  </si>
-  <si>
-    <t>2+4+6+38</t>
-  </si>
-  <si>
-    <t>3+6+39</t>
-  </si>
-  <si>
-    <t>1+3+5+38</t>
-  </si>
-  <si>
-    <t>2+4+6+39</t>
-  </si>
-  <si>
-    <t>3+6+40</t>
-  </si>
-  <si>
-    <t>1+3+5+39</t>
-  </si>
-  <si>
-    <t>2+4+6+40</t>
-  </si>
-  <si>
-    <t>3+6+41</t>
-  </si>
-  <si>
-    <t>1+3+5+40</t>
-  </si>
-  <si>
-    <t>2+4+6+41</t>
-  </si>
-  <si>
-    <t>3+6+42</t>
-  </si>
-  <si>
-    <t>1+3+5+41</t>
-  </si>
-  <si>
-    <t>2+4+6+42</t>
-  </si>
-  <si>
-    <t>3+6+43</t>
-  </si>
-  <si>
-    <t>1+3+5+42</t>
-  </si>
-  <si>
-    <t>2+4+6+43</t>
-  </si>
-  <si>
-    <t>3+6+44</t>
-  </si>
-  <si>
-    <t>1+3+5+43</t>
-  </si>
-  <si>
-    <t>2+4+6+44</t>
-  </si>
-  <si>
-    <t>3+6+45</t>
-  </si>
-  <si>
-    <t>1+3+5+44</t>
-  </si>
-  <si>
-    <t>2+4+6+45</t>
-  </si>
-  <si>
-    <t>3+6+46</t>
-  </si>
-  <si>
-    <t>1+3+5+45</t>
-  </si>
-  <si>
-    <t>2+4+6+46</t>
-  </si>
-  <si>
-    <t>3+6+47</t>
-  </si>
-  <si>
-    <t>1+3+5+46</t>
-  </si>
-  <si>
-    <t>2+4+6+47</t>
-  </si>
-  <si>
-    <t>3+6+48</t>
-  </si>
-  <si>
-    <t>1+3+5+47</t>
-  </si>
-  <si>
-    <t>2+4+6+48</t>
-  </si>
-  <si>
-    <t>3+6+49</t>
-  </si>
-  <si>
-    <t>1+3+5+48</t>
-  </si>
-  <si>
-    <t>2+4+6+49</t>
-  </si>
-  <si>
-    <t>3+6+50</t>
-  </si>
-  <si>
-    <t>1+3+5+49</t>
-  </si>
-  <si>
-    <t>2+4+6+50</t>
-  </si>
-  <si>
-    <t>3+6+51</t>
-  </si>
-  <si>
-    <t>1+3+5+50</t>
-  </si>
-  <si>
-    <t>2+4+6+51</t>
-  </si>
-  <si>
-    <t>3+6+52</t>
-  </si>
-  <si>
-    <t>1+3+5+51</t>
-  </si>
-  <si>
-    <t>2+4+6+52</t>
-  </si>
-  <si>
-    <t>3+6+53</t>
-  </si>
-  <si>
-    <t>1+3+5+52</t>
-  </si>
-  <si>
-    <t>2+4+6+53</t>
-  </si>
-  <si>
-    <t>3+6+54</t>
-  </si>
-  <si>
-    <t>1+3+5+53</t>
-  </si>
-  <si>
-    <t>2+4+6+54</t>
-  </si>
-  <si>
-    <t>3+6+55</t>
-  </si>
-  <si>
-    <t>1+3+5+54</t>
-  </si>
-  <si>
-    <t>2+4+6+55</t>
-  </si>
-  <si>
-    <t>3+6+56</t>
-  </si>
-  <si>
-    <t>1+3+5+55</t>
-  </si>
-  <si>
-    <t>2+4+6+56</t>
-  </si>
-  <si>
-    <t>3+6+57</t>
-  </si>
-  <si>
-    <t>1+3+5+56</t>
-  </si>
-  <si>
-    <t>2+4+6+57</t>
-  </si>
-  <si>
-    <t>3+6+58</t>
-  </si>
-  <si>
-    <t>1+3+5+57</t>
-  </si>
-  <si>
-    <t>2+4+6+58</t>
-  </si>
-  <si>
-    <t>3+6+59</t>
-  </si>
-  <si>
-    <t>1+3+5+58</t>
-  </si>
-  <si>
-    <t>2+4+6+59</t>
-  </si>
-  <si>
-    <t>3+6+60</t>
-  </si>
-  <si>
-    <t>1+3+5+59</t>
-  </si>
-  <si>
-    <t>2+4+6+60</t>
-  </si>
-  <si>
-    <t>3+6+61</t>
-  </si>
-  <si>
-    <t>1+3+5+60</t>
-  </si>
-  <si>
-    <t>2+4+6+61</t>
-  </si>
-  <si>
-    <t>3+6+62</t>
-  </si>
-  <si>
-    <t>1+3+5+61</t>
-  </si>
-  <si>
-    <t>2+4+6+62</t>
-  </si>
-  <si>
-    <t>3+6+63</t>
-  </si>
-  <si>
-    <t>1+3+5+62</t>
-  </si>
-  <si>
-    <t>2+4+6+63</t>
-  </si>
-  <si>
-    <t>3+6+64</t>
-  </si>
-  <si>
-    <t>1+3+5+63</t>
-  </si>
-  <si>
-    <t>2+4+6+64</t>
-  </si>
-  <si>
-    <t>3+6+65</t>
-  </si>
-  <si>
-    <t>1+3+5+64</t>
-  </si>
-  <si>
-    <t>2+4+6+65</t>
-  </si>
-  <si>
-    <t>3+6+66</t>
-  </si>
-  <si>
-    <t>1+3+5+65</t>
-  </si>
-  <si>
-    <t>2+4+6+66</t>
-  </si>
-  <si>
-    <t>3+6+67</t>
-  </si>
-  <si>
-    <t>1+3+5+66</t>
-  </si>
-  <si>
-    <t>2+4+6+67</t>
-  </si>
-  <si>
-    <t>3+6+68</t>
-  </si>
-  <si>
-    <t>1+3+5+67</t>
-  </si>
-  <si>
-    <t>2+4+6+68</t>
-  </si>
-  <si>
-    <t>3+6+69</t>
-  </si>
-  <si>
-    <t>1+3+5+68</t>
-  </si>
-  <si>
-    <t>2+4+6+69</t>
-  </si>
-  <si>
-    <t>3+6+70</t>
-  </si>
-  <si>
-    <t>1+3+5+69</t>
-  </si>
-  <si>
-    <t>2+4+6+70</t>
-  </si>
-  <si>
-    <t>3+6+71</t>
-  </si>
-  <si>
-    <t>1+3+5+70</t>
-  </si>
-  <si>
-    <t>2+4+6+71</t>
-  </si>
-  <si>
-    <t>3+6+72</t>
-  </si>
-  <si>
-    <t>1+3+5+71</t>
-  </si>
-  <si>
-    <t>2+4+6+72</t>
-  </si>
-  <si>
-    <t>3+6+73</t>
-  </si>
-  <si>
-    <t>1+3+5+72</t>
-  </si>
-  <si>
-    <t>2+4+6+73</t>
-  </si>
-  <si>
-    <t>3+6+74</t>
-  </si>
-  <si>
-    <t>1+3+5+73</t>
-  </si>
-  <si>
-    <t>2+4+6+74</t>
-  </si>
-  <si>
-    <t>3+6+75</t>
-  </si>
-  <si>
-    <t>1+3+5+74</t>
-  </si>
-  <si>
-    <t>2+4+6+75</t>
-  </si>
-  <si>
-    <t>3+6+76</t>
-  </si>
-  <si>
-    <t>1+3+5+75</t>
-  </si>
-  <si>
-    <t>2+4+6+76</t>
-  </si>
-  <si>
-    <t>3+6+77</t>
-  </si>
-  <si>
-    <t>1+3+5+76</t>
-  </si>
-  <si>
-    <t>2+4+6+77</t>
-  </si>
-  <si>
-    <t>3+6+78</t>
-  </si>
-  <si>
-    <t>1+3+5+77</t>
-  </si>
-  <si>
-    <t>2+4+6+78</t>
-  </si>
-  <si>
-    <t>3+6+79</t>
-  </si>
-  <si>
-    <t>1+3+5+78</t>
-  </si>
-  <si>
-    <t>2+4+6+79</t>
-  </si>
-  <si>
-    <t>3+6+80</t>
-  </si>
-  <si>
-    <t>1+3+5+79</t>
-  </si>
-  <si>
-    <t>2+4+6+80</t>
-  </si>
-  <si>
-    <t>3+6+81</t>
-  </si>
-  <si>
-    <t>1+3+5+80</t>
-  </si>
-  <si>
-    <t>2+4+6+81</t>
-  </si>
-  <si>
-    <t>3+6+82</t>
-  </si>
-  <si>
-    <t>1+3+5+81</t>
-  </si>
-  <si>
-    <t>2+4+6+82</t>
-  </si>
-  <si>
-    <t>3+6+83</t>
-  </si>
-  <si>
-    <t>1+3+5+82</t>
-  </si>
-  <si>
-    <t>2+4+6+83</t>
-  </si>
-  <si>
-    <t>3+6+84</t>
-  </si>
-  <si>
-    <t>1+3+5+83</t>
-  </si>
-  <si>
-    <t>2+4+6+84</t>
-  </si>
-  <si>
-    <t>3+6+85</t>
-  </si>
-  <si>
-    <t>1+3+5+84</t>
-  </si>
-  <si>
-    <t>2+4+6+85</t>
-  </si>
-  <si>
-    <t>3+6+86</t>
-  </si>
-  <si>
-    <t>1+3+5+85</t>
-  </si>
-  <si>
-    <t>2+4+6+86</t>
-  </si>
-  <si>
-    <t>3+6+87</t>
-  </si>
-  <si>
-    <t>1+3+5+86</t>
-  </si>
-  <si>
-    <t>2+4+6+87</t>
-  </si>
-  <si>
-    <t>3+6+88</t>
-  </si>
-  <si>
-    <t>1+3+5+87</t>
-  </si>
-  <si>
-    <t>2+4+6+88</t>
-  </si>
-  <si>
-    <t>3+6+89</t>
-  </si>
-  <si>
-    <t>1+3+5+88</t>
-  </si>
-  <si>
-    <t>2+4+6+89</t>
-  </si>
-  <si>
-    <t>3+6+90</t>
-  </si>
-  <si>
-    <t>1+3+5+89</t>
-  </si>
-  <si>
-    <t>2+4+6+90</t>
-  </si>
-  <si>
-    <t>3+6+91</t>
-  </si>
-  <si>
-    <t>1+3+5+90</t>
-  </si>
-  <si>
-    <t>2+4+6+91</t>
-  </si>
-  <si>
-    <t>3+6+92</t>
-  </si>
-  <si>
-    <t>1+3+5+91</t>
-  </si>
-  <si>
-    <t>2+4+6+92</t>
-  </si>
-  <si>
-    <t>3+6+93</t>
-  </si>
-  <si>
-    <t>1+3+5+92</t>
-  </si>
-  <si>
-    <t>2+4+6+93</t>
-  </si>
-  <si>
-    <t>3+6+94</t>
-  </si>
-  <si>
-    <t>1+3+5+93</t>
-  </si>
-  <si>
-    <t>2+4+6+94</t>
-  </si>
-  <si>
-    <t>3+6+95</t>
-  </si>
-  <si>
-    <t>1+3+5+94</t>
-  </si>
-  <si>
-    <t>2+4+6+95</t>
-  </si>
-  <si>
-    <t>3+6+96</t>
-  </si>
-  <si>
-    <t>1+3+5+95</t>
-  </si>
-  <si>
-    <t>2+4+6+96</t>
-  </si>
-  <si>
-    <t>3+6+97</t>
-  </si>
-  <si>
-    <t>1+3+5+96</t>
-  </si>
-  <si>
-    <t>2+4+6+97</t>
-  </si>
-  <si>
-    <t>3+6+98</t>
-  </si>
-  <si>
-    <t>1+3+5+97</t>
-  </si>
-  <si>
-    <t>2+4+6+98</t>
-  </si>
-  <si>
-    <t>3+6+99</t>
-  </si>
-  <si>
-    <t>1+3+5+98</t>
-  </si>
-  <si>
-    <t>2+4+6+99</t>
-  </si>
-  <si>
-    <t>3+6+100</t>
-  </si>
-  <si>
-    <t>1+3+5+99</t>
-  </si>
-  <si>
-    <t>2+4+6+100</t>
-  </si>
-  <si>
-    <t>3+6+101</t>
-  </si>
-  <si>
-    <t>1+3+5+100</t>
-  </si>
-  <si>
-    <t>2+4+6+101</t>
-  </si>
-  <si>
-    <t>3+6+102</t>
-  </si>
-  <si>
-    <t>1+3+5+101</t>
-  </si>
-  <si>
-    <t>2+4+6+102</t>
-  </si>
-  <si>
-    <t>3+6+103</t>
-  </si>
-  <si>
-    <t>1+3+5+102</t>
-  </si>
-  <si>
-    <t>2+4+6+103</t>
-  </si>
-  <si>
-    <t>3+6+104</t>
-  </si>
-  <si>
-    <t>1+3+5+103</t>
-  </si>
-  <si>
-    <t>2+4+6+104</t>
-  </si>
-  <si>
-    <t>3+6+105</t>
-  </si>
-  <si>
-    <t>1+3+5+104</t>
-  </si>
-  <si>
-    <t>2+4+6+105</t>
-  </si>
-  <si>
-    <t>3+6+106</t>
-  </si>
-  <si>
-    <t>1+3+5+105</t>
-  </si>
-  <si>
-    <t>2+4+6+106</t>
-  </si>
-  <si>
-    <t>3+6+107</t>
-  </si>
-  <si>
-    <t>1+3+5+106</t>
-  </si>
-  <si>
-    <t>2+4+6+107</t>
-  </si>
-  <si>
-    <t>3+6+108</t>
-  </si>
-  <si>
-    <t>1+3+5+107</t>
-  </si>
-  <si>
-    <t>2+4+6+108</t>
-  </si>
-  <si>
-    <t>3+6+109</t>
-  </si>
-  <si>
-    <t>1+3+5+108</t>
-  </si>
-  <si>
-    <t>2+4+6+109</t>
-  </si>
-  <si>
-    <t>3+6+110</t>
-  </si>
-  <si>
-    <t>1+3+5+109</t>
-  </si>
-  <si>
-    <t>2+4+6+110</t>
-  </si>
-  <si>
-    <t>3+6+111</t>
-  </si>
-  <si>
-    <t>1+3+5+110</t>
-  </si>
-  <si>
-    <t>2+4+6+111</t>
-  </si>
-  <si>
-    <t>3+6+112</t>
-  </si>
-  <si>
-    <t>1+3+5+111</t>
-  </si>
-  <si>
-    <t>2+4+6+112</t>
-  </si>
-  <si>
-    <t>3+6+113</t>
-  </si>
-  <si>
-    <t>1+3+5+112</t>
-  </si>
-  <si>
-    <t>2+4+6+113</t>
-  </si>
-  <si>
-    <t>3+6+114</t>
-  </si>
-  <si>
-    <t>1+3+5+113</t>
-  </si>
-  <si>
-    <t>2+4+6+114</t>
-  </si>
-  <si>
-    <t>3+6+115</t>
-  </si>
-  <si>
-    <t>1+3+5+114</t>
-  </si>
-  <si>
-    <t>2+4+6+115</t>
-  </si>
-  <si>
-    <t>3+6+116</t>
-  </si>
-  <si>
-    <t>1+3+5+115</t>
-  </si>
-  <si>
-    <t>2+4+6+116</t>
-  </si>
-  <si>
-    <t>3+6+117</t>
-  </si>
-  <si>
-    <t>1+3+5+116</t>
-  </si>
-  <si>
-    <t>2+4+6+117</t>
-  </si>
-  <si>
-    <t>3+6+118</t>
-  </si>
-  <si>
-    <t>1+3+5+117</t>
-  </si>
-  <si>
-    <t>2+4+6+118</t>
-  </si>
-  <si>
-    <t>3+6+119</t>
-  </si>
-  <si>
-    <t>1+3+5+118</t>
-  </si>
-  <si>
-    <t>2+4+6+119</t>
-  </si>
-  <si>
-    <t>3+6+120</t>
-  </si>
-  <si>
-    <t>1+3+5+119</t>
-  </si>
-  <si>
-    <t>2+4+6+120</t>
-  </si>
-  <si>
-    <t>3+6+121</t>
-  </si>
-  <si>
-    <t>1+3+5+120</t>
-  </si>
-  <si>
-    <t>2+4+6+121</t>
-  </si>
-  <si>
-    <t>3+6+122</t>
-  </si>
-  <si>
-    <t>1+3+5+121</t>
-  </si>
-  <si>
-    <t>2+4+6+122</t>
-  </si>
-  <si>
-    <t>3+6+123</t>
-  </si>
-  <si>
-    <t>1+3+5+122</t>
-  </si>
-  <si>
-    <t>2+4+6+123</t>
-  </si>
-  <si>
-    <t>3+6+124</t>
-  </si>
-  <si>
-    <t>1+3+5+123</t>
-  </si>
-  <si>
-    <t>2+4+6+124</t>
-  </si>
-  <si>
-    <t>3+6+125</t>
-  </si>
-  <si>
-    <t>1+3+5+124</t>
-  </si>
-  <si>
-    <t>2+4+6+125</t>
-  </si>
-  <si>
-    <t>3+6+126</t>
-  </si>
-  <si>
-    <t>1+3+5+125</t>
-  </si>
-  <si>
-    <t>2+4+6+126</t>
-  </si>
-  <si>
-    <t>3+6+127</t>
-  </si>
-  <si>
-    <t>1+3+5+126</t>
-  </si>
-  <si>
-    <t>2+4+6+127</t>
-  </si>
-  <si>
-    <t>3+6+128</t>
-  </si>
-  <si>
-    <t>1+3+5+127</t>
-  </si>
-  <si>
-    <t>2+4+6+128</t>
-  </si>
-  <si>
-    <t>3+6+129</t>
-  </si>
-  <si>
-    <t>1+3+5+128</t>
-  </si>
-  <si>
-    <t>2+4+6+129</t>
-  </si>
-  <si>
-    <t>3+6+130</t>
-  </si>
-  <si>
-    <t>1+3+5+129</t>
-  </si>
-  <si>
-    <t>2+4+6+130</t>
-  </si>
-  <si>
-    <t>3+6+131</t>
-  </si>
-  <si>
-    <t>1+3+5+130</t>
-  </si>
-  <si>
-    <t>2+4+6+131</t>
-  </si>
-  <si>
-    <t>3+6+132</t>
-  </si>
-  <si>
-    <t>1+3+5+131</t>
-  </si>
-  <si>
-    <t>2+4+6+132</t>
-  </si>
-  <si>
-    <t>3+6+133</t>
-  </si>
-  <si>
-    <t>1+3+5+132</t>
-  </si>
-  <si>
-    <t>2+4+6+133</t>
-  </si>
-  <si>
-    <t>3+6+134</t>
-  </si>
-  <si>
-    <t>1+3+5+133</t>
-  </si>
-  <si>
-    <t>2+4+6+134</t>
-  </si>
-  <si>
-    <t>3+6+135</t>
-  </si>
-  <si>
-    <t>1+3+5+134</t>
-  </si>
-  <si>
-    <t>2+4+6+135</t>
-  </si>
-  <si>
-    <t>3+6+136</t>
-  </si>
-  <si>
-    <t>1+3+5+135</t>
-  </si>
-  <si>
-    <t>2+4+6+136</t>
-  </si>
-  <si>
-    <t>3+6+137</t>
-  </si>
-  <si>
-    <t>1+3+5+136</t>
-  </si>
-  <si>
-    <t>2+4+6+137</t>
-  </si>
-  <si>
-    <t>3+6+138</t>
-  </si>
-  <si>
-    <t>1+3+5+137</t>
-  </si>
-  <si>
-    <t>2+4+6+138</t>
-  </si>
-  <si>
-    <t>3+6+139</t>
-  </si>
-  <si>
-    <t>1+3+5+138</t>
-  </si>
-  <si>
-    <t>2+4+6+139</t>
-  </si>
-  <si>
-    <t>3+6+140</t>
-  </si>
-  <si>
-    <t>1+3+5+139</t>
-  </si>
-  <si>
-    <t>2+4+6+140</t>
-  </si>
-  <si>
-    <t>3+6+141</t>
-  </si>
-  <si>
-    <t>1+3+5+140</t>
-  </si>
-  <si>
-    <t>2+4+6+141</t>
-  </si>
-  <si>
-    <t>3+6+142</t>
-  </si>
-  <si>
-    <t>1+3+5+141</t>
-  </si>
-  <si>
-    <t>2+4+6+142</t>
-  </si>
-  <si>
-    <t>3+6+143</t>
-  </si>
-  <si>
-    <t>1+3+5+142</t>
-  </si>
-  <si>
-    <t>2+4+6+143</t>
-  </si>
-  <si>
-    <t>3+6+144</t>
-  </si>
-  <si>
-    <t>1+3+5+143</t>
-  </si>
-  <si>
-    <t>2+4+6+144</t>
-  </si>
-  <si>
-    <t>3+6+145</t>
-  </si>
-  <si>
-    <t>1+3+5+144</t>
-  </si>
-  <si>
-    <t>2+4+6+145</t>
-  </si>
-  <si>
-    <t>3+6+146</t>
-  </si>
-  <si>
-    <t>1+3+5+145</t>
-  </si>
-  <si>
-    <t>2+4+6+146</t>
-  </si>
-  <si>
-    <t>3+6+147</t>
-  </si>
-  <si>
-    <t>1+3+5+146</t>
-  </si>
-  <si>
-    <t>2+4+6+147</t>
-  </si>
-  <si>
-    <t>3+6+148</t>
-  </si>
-  <si>
-    <t>1+3+5+147</t>
-  </si>
-  <si>
-    <t>2+4+6+148</t>
-  </si>
-  <si>
-    <t>3+6+149</t>
-  </si>
-  <si>
-    <t>1+3+5+148</t>
-  </si>
-  <si>
-    <t>2+4+6+149</t>
-  </si>
-  <si>
-    <t>3+6+150</t>
-  </si>
-  <si>
-    <t>1+3+5+149</t>
-  </si>
-  <si>
-    <t>2+4+6+150</t>
-  </si>
-  <si>
-    <t>3+6+151</t>
-  </si>
-  <si>
-    <t>1+3+5+150</t>
-  </si>
-  <si>
-    <t>2+4+6+151</t>
-  </si>
-  <si>
-    <t>3+6+152</t>
-  </si>
-  <si>
-    <t>1+3+5+151</t>
-  </si>
-  <si>
-    <t>2+4+6+152</t>
-  </si>
-  <si>
-    <t>3+6+153</t>
-  </si>
-  <si>
-    <t>1+3+5+152</t>
-  </si>
-  <si>
-    <t>2+4+6+153</t>
-  </si>
-  <si>
-    <t>3+6+154</t>
-  </si>
-  <si>
-    <t>1+3+5+153</t>
-  </si>
-  <si>
-    <t>2+4+6+154</t>
-  </si>
-  <si>
-    <t>3+6+155</t>
-  </si>
-  <si>
-    <t>1+3+5+154</t>
-  </si>
-  <si>
-    <t>2+4+6+155</t>
-  </si>
-  <si>
-    <t>3+6+156</t>
-  </si>
-  <si>
-    <t>1+3+5+155</t>
-  </si>
-  <si>
-    <t>2+4+6+156</t>
-  </si>
-  <si>
-    <t>3+6+157</t>
-  </si>
-  <si>
-    <t>1+3+5+156</t>
-  </si>
-  <si>
-    <t>2+4+6+157</t>
-  </si>
-  <si>
-    <t>3+6+158</t>
-  </si>
-  <si>
-    <t>1+3+5+157</t>
-  </si>
-  <si>
-    <t>2+4+6+158</t>
-  </si>
-  <si>
-    <t>3+6+159</t>
-  </si>
-  <si>
-    <t>1+3+5+158</t>
-  </si>
-  <si>
-    <t>2+4+6+159</t>
-  </si>
-  <si>
-    <t>3+6+160</t>
-  </si>
-  <si>
-    <t>1+3+5+159</t>
-  </si>
-  <si>
-    <t>2+4+6+160</t>
-  </si>
-  <si>
-    <t>3+6+161</t>
-  </si>
-  <si>
-    <t>1+3+5+160</t>
-  </si>
-  <si>
-    <t>2+4+6+161</t>
-  </si>
-  <si>
-    <t>3+6+162</t>
-  </si>
-  <si>
-    <t>1+3+5+161</t>
-  </si>
-  <si>
-    <t>2+4+6+162</t>
-  </si>
-  <si>
-    <t>3+6+163</t>
-  </si>
-  <si>
-    <t>1+3+5+162</t>
-  </si>
-  <si>
-    <t>2+4+6+163</t>
-  </si>
-  <si>
-    <t>3+6+164</t>
-  </si>
-  <si>
-    <t>1+3+5+163</t>
-  </si>
-  <si>
-    <t>2+4+6+164</t>
-  </si>
-  <si>
-    <t>3+6+165</t>
-  </si>
-  <si>
-    <t>1+3+5+164</t>
-  </si>
-  <si>
-    <t>2+4+6+165</t>
-  </si>
-  <si>
-    <t>3+6+166</t>
-  </si>
-  <si>
-    <t>1+3+5+165</t>
-  </si>
-  <si>
-    <t>2+4+6+166</t>
-  </si>
-  <si>
-    <t>3+6+167</t>
-  </si>
-  <si>
-    <t>1+3+5+166</t>
-  </si>
-  <si>
-    <t>2+4+6+167</t>
-  </si>
-  <si>
-    <t>3+6+168</t>
-  </si>
-  <si>
-    <t>1+3+5+167</t>
-  </si>
-  <si>
-    <t>2+4+6+168</t>
-  </si>
-  <si>
-    <t>3+6+169</t>
-  </si>
-  <si>
-    <t>1+3+5+168</t>
-  </si>
-  <si>
-    <t>2+4+6+169</t>
-  </si>
-  <si>
-    <t>3+6+170</t>
-  </si>
-  <si>
-    <t>1+3+5+169</t>
-  </si>
-  <si>
-    <t>2+4+6+170</t>
-  </si>
-  <si>
-    <t>3+6+171</t>
-  </si>
-  <si>
-    <t>1+3+5+170</t>
-  </si>
-  <si>
-    <t>2+4+6+171</t>
-  </si>
-  <si>
-    <t>3+6+172</t>
-  </si>
-  <si>
-    <t>1+3+5+171</t>
-  </si>
-  <si>
-    <t>2+4+6+172</t>
-  </si>
-  <si>
-    <t>3+6+173</t>
-  </si>
-  <si>
-    <t>1+3+5+172</t>
-  </si>
-  <si>
-    <t>2+4+6+173</t>
-  </si>
-  <si>
-    <t>3+6+174</t>
-  </si>
-  <si>
-    <t>1+3+5+173</t>
-  </si>
-  <si>
-    <t>2+4+6+174</t>
-  </si>
-  <si>
-    <t>3+6+175</t>
-  </si>
-  <si>
-    <t>1+3+5+174</t>
-  </si>
-  <si>
-    <t>2+4+6+175</t>
-  </si>
-  <si>
-    <t>3+6+176</t>
-  </si>
-  <si>
-    <t>1+3+5+175</t>
-  </si>
-  <si>
-    <t>2+4+6+176</t>
-  </si>
-  <si>
-    <t>3+6+177</t>
-  </si>
-  <si>
-    <t>1+3+5+176</t>
-  </si>
-  <si>
-    <t>2+4+6+177</t>
-  </si>
-  <si>
-    <t>3+6+178</t>
-  </si>
-  <si>
-    <t>1+3+5+177</t>
-  </si>
-  <si>
-    <t>2+4+6+178</t>
-  </si>
-  <si>
-    <t>3+6+179</t>
-  </si>
-  <si>
-    <t>1+3+5+178</t>
-  </si>
-  <si>
-    <t>2+4+6+179</t>
-  </si>
-  <si>
-    <t>3+6+180</t>
-  </si>
-  <si>
-    <t>1+3+5+179</t>
-  </si>
-  <si>
-    <t>2+4+6+180</t>
-  </si>
-  <si>
-    <t>3+6+181</t>
-  </si>
-  <si>
-    <t>1+3+5+180</t>
-  </si>
-  <si>
-    <t>2+4+6+181</t>
-  </si>
-  <si>
-    <t>3+6+182</t>
-  </si>
-  <si>
-    <t>1+3+5+181</t>
-  </si>
-  <si>
-    <t>2+4+6+182</t>
-  </si>
-  <si>
-    <t>3+6+183</t>
-  </si>
-  <si>
-    <t>1+3+5+182</t>
-  </si>
-  <si>
-    <t>2+4+6+183</t>
-  </si>
-  <si>
-    <t>3+6+184</t>
-  </si>
-  <si>
-    <t>1+3+5+183</t>
-  </si>
-  <si>
-    <t>2+4+6+184</t>
-  </si>
-  <si>
-    <t>3+6+185</t>
-  </si>
-  <si>
-    <t>1+3+5+184</t>
-  </si>
-  <si>
-    <t>2+4+6+185</t>
-  </si>
-  <si>
-    <t>3+6+186</t>
-  </si>
-  <si>
-    <t>1+3+5+185</t>
-  </si>
-  <si>
-    <t>2+4+6+186</t>
-  </si>
-  <si>
-    <t>3+6+187</t>
-  </si>
-  <si>
-    <t>1+3+5+186</t>
-  </si>
-  <si>
-    <t>2+4+6+187</t>
-  </si>
-  <si>
-    <t>3+6+188</t>
-  </si>
-  <si>
-    <t>1+3+5+187</t>
-  </si>
-  <si>
-    <t>2+4+6+188</t>
-  </si>
-  <si>
-    <t>3+6+189</t>
-  </si>
-  <si>
-    <t>1+3+5+188</t>
-  </si>
-  <si>
-    <t>2+4+6+189</t>
-  </si>
-  <si>
-    <t>3+6+190</t>
-  </si>
-  <si>
-    <t>1+3+5+189</t>
-  </si>
-  <si>
-    <t>2+4+6+190</t>
-  </si>
-  <si>
-    <t>3+6+191</t>
-  </si>
-  <si>
-    <t>1+3+5+190</t>
-  </si>
-  <si>
-    <t>2+4+6+191</t>
-  </si>
-  <si>
-    <t>3+6+192</t>
-  </si>
-  <si>
-    <t>1+3+5+191</t>
-  </si>
-  <si>
-    <t>2+4+6+192</t>
-  </si>
-  <si>
-    <t>3+6+193</t>
-  </si>
-  <si>
-    <t>1+3+5+192</t>
-  </si>
-  <si>
-    <t>2+4+6+193</t>
-  </si>
-  <si>
-    <t>3+6+194</t>
-  </si>
-  <si>
-    <t>1+3+5+193</t>
-  </si>
-  <si>
-    <t>2+4+6+194</t>
-  </si>
-  <si>
-    <t>3+6+195</t>
-  </si>
-  <si>
-    <t>1+3+5+194</t>
-  </si>
-  <si>
-    <t>2+4+6+195</t>
-  </si>
-  <si>
-    <t>3+6+196</t>
-  </si>
-  <si>
-    <t>1+3+5+195</t>
-  </si>
-  <si>
-    <t>2+4+6+196</t>
-  </si>
-  <si>
-    <t>3+6+197</t>
-  </si>
-  <si>
-    <t>1+3+5+196</t>
-  </si>
-  <si>
-    <t>2+4+6+197</t>
-  </si>
-  <si>
-    <t>3+6+198</t>
-  </si>
-  <si>
-    <t>1+3+5+197</t>
-  </si>
-  <si>
-    <t>2+4+6+198</t>
-  </si>
-  <si>
-    <t>3+6+199</t>
-  </si>
-  <si>
-    <t>1+3+5+198</t>
-  </si>
-  <si>
-    <t>2+4+6+199</t>
-  </si>
-  <si>
-    <t>3+6+200</t>
-  </si>
-  <si>
-    <t>1+3+5+199</t>
-  </si>
-  <si>
-    <t>2+4+6+200</t>
-  </si>
-  <si>
-    <t>3+6+201</t>
-  </si>
-  <si>
-    <t>1+3+5+200</t>
-  </si>
-  <si>
-    <t>2+4+6+201</t>
-  </si>
-  <si>
-    <t>3+6+202</t>
-  </si>
-  <si>
-    <t>1+3+5+201</t>
-  </si>
-  <si>
-    <t>2+4+6+202</t>
-  </si>
-  <si>
-    <t>3+6+203</t>
-  </si>
-  <si>
-    <t>1+3+5+202</t>
-  </si>
-  <si>
-    <t>2+4+6+203</t>
-  </si>
-  <si>
-    <t>3+6+204</t>
-  </si>
-  <si>
-    <t>1+3+5+203</t>
-  </si>
-  <si>
-    <t>2+4+6+204</t>
-  </si>
-  <si>
-    <t>3+6+205</t>
-  </si>
-  <si>
-    <t>1+3+5+204</t>
-  </si>
-  <si>
-    <t>2+4+6+205</t>
-  </si>
-  <si>
-    <t>3+6+206</t>
-  </si>
-  <si>
-    <t>1+3+5+205</t>
-  </si>
-  <si>
-    <t>2+4+6+206</t>
-  </si>
-  <si>
-    <t>3+6+207</t>
-  </si>
-  <si>
-    <t>1+3+5+206</t>
-  </si>
-  <si>
-    <t>2+4+6+207</t>
-  </si>
-  <si>
-    <t>3+6+208</t>
-  </si>
-  <si>
-    <t>1+3+5+207</t>
-  </si>
-  <si>
-    <t>2+4+6+208</t>
-  </si>
-  <si>
-    <t>3+6+209</t>
-  </si>
-  <si>
-    <t>1+3+5+208</t>
-  </si>
-  <si>
-    <t>2+4+6+209</t>
-  </si>
-  <si>
-    <t>3+6+210</t>
-  </si>
-  <si>
-    <t>1+3+5+209</t>
-  </si>
-  <si>
-    <t>2+4+6+210</t>
-  </si>
-  <si>
-    <t>3+6+211</t>
-  </si>
-  <si>
-    <t>1+3+5+210</t>
-  </si>
-  <si>
-    <t>2+4+6+211</t>
-  </si>
-  <si>
-    <t>3+6+212</t>
-  </si>
-  <si>
-    <t>1+3+5+211</t>
-  </si>
-  <si>
-    <t>2+4+6+212</t>
-  </si>
-  <si>
-    <t>3+6+213</t>
-  </si>
-  <si>
-    <t>1+3+5+212</t>
-  </si>
-  <si>
-    <t>2+4+6+213</t>
-  </si>
-  <si>
-    <t>3+6+214</t>
-  </si>
-  <si>
-    <t>1+3+5+213</t>
-  </si>
-  <si>
-    <t>2+4+6+214</t>
-  </si>
-  <si>
-    <t>3+6+215</t>
-  </si>
-  <si>
-    <t>1+3+5+214</t>
-  </si>
-  <si>
-    <t>2+4+6+215</t>
-  </si>
-  <si>
-    <t>3+6+216</t>
-  </si>
-  <si>
-    <t>1+3+5+215</t>
-  </si>
-  <si>
-    <t>2+4+6+216</t>
-  </si>
-  <si>
-    <t>3+6+217</t>
-  </si>
-  <si>
-    <t>1+3+5+216</t>
-  </si>
-  <si>
-    <t>2+4+6+217</t>
-  </si>
-  <si>
-    <t>3+6+218</t>
-  </si>
-  <si>
-    <t>1+3+5+217</t>
-  </si>
-  <si>
-    <t>2+4+6+218</t>
-  </si>
-  <si>
-    <t>3+6+219</t>
-  </si>
-  <si>
-    <t>1+3+5+218</t>
-  </si>
-  <si>
-    <t>2+4+6+219</t>
-  </si>
-  <si>
-    <t>3+6+220</t>
-  </si>
-  <si>
-    <t>1+3+5+219</t>
-  </si>
-  <si>
-    <t>2+4+6+220</t>
-  </si>
-  <si>
-    <t>3+6+221</t>
-  </si>
-  <si>
-    <t>1+3+5+220</t>
-  </si>
-  <si>
-    <t>2+4+6+221</t>
-  </si>
-  <si>
-    <t>3+6+222</t>
-  </si>
-  <si>
-    <t>1+3+5+221</t>
-  </si>
-  <si>
-    <t>2+4+6+222</t>
-  </si>
-  <si>
-    <t>3+6+223</t>
-  </si>
-  <si>
-    <t>1+3+5+222</t>
-  </si>
-  <si>
-    <t>2+4+6+223</t>
-  </si>
-  <si>
-    <t>3+6+224</t>
-  </si>
-  <si>
-    <t>1+3+5+223</t>
-  </si>
-  <si>
-    <t>2+4+6+224</t>
-  </si>
-  <si>
-    <t>3+6+225</t>
-  </si>
-  <si>
-    <t>1+3+5+224</t>
-  </si>
-  <si>
-    <t>2+4+6+225</t>
-  </si>
-  <si>
-    <t>3+6+226</t>
-  </si>
-  <si>
-    <t>1+3+5+225</t>
-  </si>
-  <si>
-    <t>2+4+6+226</t>
-  </si>
-  <si>
-    <t>3+6+227</t>
-  </si>
-  <si>
-    <t>1+3+5+226</t>
-  </si>
-  <si>
-    <t>2+4+6+227</t>
-  </si>
-  <si>
-    <t>3+6+228</t>
-  </si>
-  <si>
-    <t>1+3+5+227</t>
-  </si>
-  <si>
-    <t>2+4+6+228</t>
-  </si>
-  <si>
-    <t>3+6+229</t>
-  </si>
-  <si>
-    <t>1+3+5+228</t>
-  </si>
-  <si>
-    <t>2+4+6+229</t>
-  </si>
-  <si>
-    <t>3+6+230</t>
-  </si>
-  <si>
-    <t>1+3+5+229</t>
-  </si>
-  <si>
-    <t>2+4+6+230</t>
-  </si>
-  <si>
-    <t>3+6+231</t>
-  </si>
-  <si>
-    <t>1+3+5+230</t>
-  </si>
-  <si>
-    <t>2+4+6+231</t>
-  </si>
-  <si>
-    <t>3+6+232</t>
-  </si>
-  <si>
-    <t>1+3+5+231</t>
-  </si>
-  <si>
-    <t>2+4+6+232</t>
-  </si>
-  <si>
-    <t>3+6+233</t>
-  </si>
-  <si>
-    <t>1+3+5+232</t>
-  </si>
-  <si>
-    <t>2+4+6+233</t>
-  </si>
-  <si>
-    <t>3+6+234</t>
-  </si>
-  <si>
-    <t>1+3+5+233</t>
-  </si>
-  <si>
-    <t>2+4+6+234</t>
-  </si>
-  <si>
-    <t>3+6+235</t>
-  </si>
-  <si>
-    <t>1+3+5+234</t>
-  </si>
-  <si>
-    <t>2+4+6+235</t>
-  </si>
-  <si>
-    <t>3+6+236</t>
-  </si>
-  <si>
-    <t>1+3+5+235</t>
-  </si>
-  <si>
-    <t>2+4+6+236</t>
-  </si>
-  <si>
-    <t>3+6+237</t>
-  </si>
-  <si>
-    <t>1+3+5+236</t>
-  </si>
-  <si>
-    <t>2+4+6+237</t>
-  </si>
-  <si>
-    <t>3+6+238</t>
-  </si>
-  <si>
-    <t>1+3+5+237</t>
-  </si>
-  <si>
-    <t>2+4+6+238</t>
-  </si>
-  <si>
-    <t>3+6+239</t>
-  </si>
-  <si>
-    <t>1+3+5+238</t>
-  </si>
-  <si>
-    <t>2+4+6+239</t>
-  </si>
-  <si>
-    <t>3+6+240</t>
-  </si>
-  <si>
-    <t>1+3+5+239</t>
-  </si>
-  <si>
-    <t>2+4+6+240</t>
-  </si>
-  <si>
-    <t>3+6+241</t>
-  </si>
-  <si>
-    <t>1+3+5+240</t>
-  </si>
-  <si>
-    <t>2+4+6+241</t>
-  </si>
-  <si>
-    <t>3+6+242</t>
-  </si>
-  <si>
-    <t>1+3+5+241</t>
-  </si>
-  <si>
-    <t>2+4+6+242</t>
-  </si>
-  <si>
-    <t>3+6+243</t>
-  </si>
-  <si>
-    <t>1+3+5+242</t>
-  </si>
-  <si>
-    <t>2+4+6+243</t>
-  </si>
-  <si>
-    <t>3+6+244</t>
-  </si>
-  <si>
-    <t>1+3+5+243</t>
-  </si>
-  <si>
-    <t>2+4+6+244</t>
-  </si>
-  <si>
-    <t>3+6+245</t>
-  </si>
-  <si>
-    <t>1+3+5+244</t>
-  </si>
-  <si>
-    <t>2+4+6+245</t>
-  </si>
-  <si>
-    <t>3+6+246</t>
-  </si>
-  <si>
-    <t>1+3+5+245</t>
-  </si>
-  <si>
-    <t>2+4+6+246</t>
-  </si>
-  <si>
-    <t>3+6+247</t>
-  </si>
-  <si>
-    <t>1+3+5+246</t>
-  </si>
-  <si>
-    <t>2+4+6+247</t>
-  </si>
-  <si>
-    <t>3+6+248</t>
-  </si>
-  <si>
-    <t>1+3+5+247</t>
-  </si>
-  <si>
-    <t>2+4+6+248</t>
-  </si>
-  <si>
-    <t>3+6+249</t>
-  </si>
-  <si>
-    <t>1+3+5+248</t>
-  </si>
-  <si>
-    <t>2+4+6+249</t>
-  </si>
-  <si>
-    <t>3+6+250</t>
-  </si>
-  <si>
-    <t>1+3+5+249</t>
-  </si>
-  <si>
-    <t>2+4+6+250</t>
-  </si>
-  <si>
-    <t>3+6+251</t>
-  </si>
-  <si>
-    <t>1+3+5+250</t>
-  </si>
-  <si>
-    <t>2+4+6+251</t>
-  </si>
-  <si>
-    <t>3+6+252</t>
-  </si>
-  <si>
-    <t>1+3+5+251</t>
-  </si>
-  <si>
-    <t>2+4+6+252</t>
-  </si>
-  <si>
-    <t>3+6+253</t>
-  </si>
-  <si>
-    <t>1+3+5+252</t>
-  </si>
-  <si>
-    <t>2+4+6+253</t>
-  </si>
-  <si>
-    <t>3+6+254</t>
-  </si>
-  <si>
-    <t>1+3+5+253</t>
-  </si>
-  <si>
-    <t>2+4+6+254</t>
-  </si>
-  <si>
-    <t>3+6+255</t>
-  </si>
-  <si>
-    <t>1+3+5+254</t>
-  </si>
-  <si>
-    <t>2+4+6+255</t>
-  </si>
-  <si>
-    <t>3+6+256</t>
-  </si>
-  <si>
-    <t>1+3+5+255</t>
-  </si>
-  <si>
-    <t>2+4+6+256</t>
-  </si>
-  <si>
-    <t>3+6+257</t>
-  </si>
-  <si>
-    <t>1+3+5+256</t>
-  </si>
-  <si>
-    <t>2+4+6+257</t>
-  </si>
-  <si>
-    <t>3+6+258</t>
-  </si>
-  <si>
-    <t>1+3+5+257</t>
-  </si>
-  <si>
-    <t>2+4+6+258</t>
-  </si>
-  <si>
-    <t>3+6+259</t>
-  </si>
-  <si>
-    <t>1+3+5+258</t>
-  </si>
-  <si>
-    <t>2+4+6+259</t>
-  </si>
-  <si>
-    <t>3+6+260</t>
-  </si>
-  <si>
-    <t>1+3+5+259</t>
-  </si>
-  <si>
-    <t>2+4+6+260</t>
-  </si>
-  <si>
-    <t>3+6+261</t>
-  </si>
-  <si>
-    <t>1+3+5+260</t>
-  </si>
-  <si>
-    <t>2+4+6+261</t>
-  </si>
-  <si>
-    <t>3+6+262</t>
-  </si>
-  <si>
-    <t>1+3+5+261</t>
-  </si>
-  <si>
-    <t>2+4+6+262</t>
-  </si>
-  <si>
-    <t>3+6+263</t>
-  </si>
-  <si>
-    <t>1+3+5+262</t>
-  </si>
-  <si>
-    <t>2+4+6+263</t>
-  </si>
-  <si>
-    <t>3+6+264</t>
-  </si>
-  <si>
-    <t>1+3+5+263</t>
-  </si>
-  <si>
-    <t>2+4+6+264</t>
-  </si>
-  <si>
-    <t>3+6+265</t>
-  </si>
-  <si>
-    <t>1+3+5+264</t>
-  </si>
-  <si>
-    <t>2+4+6+265</t>
-  </si>
-  <si>
-    <t>3+6+266</t>
-  </si>
-  <si>
-    <t>1+3+5+265</t>
-  </si>
-  <si>
-    <t>2+4+6+266</t>
-  </si>
-  <si>
-    <t>3+6+267</t>
-  </si>
-  <si>
-    <t>1+3+5+266</t>
-  </si>
-  <si>
-    <t>2+4+6+267</t>
-  </si>
-  <si>
-    <t>3+6+268</t>
-  </si>
-  <si>
-    <t>1+3+5+267</t>
-  </si>
-  <si>
-    <t>2+4+6+268</t>
-  </si>
-  <si>
-    <t>3+6+269</t>
-  </si>
-  <si>
-    <t>1+3+5+268</t>
-  </si>
-  <si>
-    <t>2+4+6+269</t>
-  </si>
-  <si>
-    <t>3+6+270</t>
-  </si>
-  <si>
-    <t>1+3+5+269</t>
-  </si>
-  <si>
-    <t>2+4+6+270</t>
-  </si>
-  <si>
-    <t>3+6+271</t>
-  </si>
-  <si>
-    <t>1+3+5+270</t>
-  </si>
-  <si>
-    <t>2+4+6+271</t>
-  </si>
-  <si>
-    <t>3+6+272</t>
-  </si>
-  <si>
-    <t>1+3+5+271</t>
-  </si>
-  <si>
-    <t>2+4+6+272</t>
-  </si>
-  <si>
-    <t>3+6+273</t>
-  </si>
-  <si>
-    <t>1+3+5+272</t>
-  </si>
-  <si>
-    <t>2+4+6+273</t>
-  </si>
-  <si>
-    <t>3+6+274</t>
-  </si>
-  <si>
-    <t>1+3+5+273</t>
-  </si>
-  <si>
-    <t>2+4+6+274</t>
-  </si>
-  <si>
-    <t>3+6+275</t>
-  </si>
-  <si>
-    <t>1+3+5+274</t>
-  </si>
-  <si>
-    <t>2+4+6+275</t>
-  </si>
-  <si>
-    <t>3+6+276</t>
-  </si>
-  <si>
-    <t>1+3+5+275</t>
-  </si>
-  <si>
-    <t>2+4+6+276</t>
-  </si>
-  <si>
-    <t>3+6+277</t>
-  </si>
-  <si>
-    <t>1+3+5+276</t>
-  </si>
-  <si>
-    <t>2+4+6+277</t>
-  </si>
-  <si>
-    <t>3+6+278</t>
-  </si>
-  <si>
-    <t>1+3+5+277</t>
-  </si>
-  <si>
-    <t>2+4+6+278</t>
-  </si>
-  <si>
-    <t>3+6+279</t>
-  </si>
-  <si>
-    <t>1+3+5+278</t>
-  </si>
-  <si>
-    <t>2+4+6+279</t>
-  </si>
-  <si>
-    <t>3+6+280</t>
-  </si>
-  <si>
-    <t>1+3+5+279</t>
-  </si>
-  <si>
-    <t>2+4+6+280</t>
-  </si>
-  <si>
-    <t>3+6+281</t>
-  </si>
-  <si>
-    <t>1+3+5+280</t>
-  </si>
-  <si>
-    <t>2+4+6+281</t>
-  </si>
-  <si>
-    <t>3+6+282</t>
-  </si>
-  <si>
-    <t>1+3+5+281</t>
-  </si>
-  <si>
-    <t>2+4+6+282</t>
-  </si>
-  <si>
-    <t>3+6+283</t>
-  </si>
-  <si>
-    <t>1+3+5+282</t>
-  </si>
-  <si>
-    <t>2+4+6+283</t>
-  </si>
-  <si>
-    <t>3+6+284</t>
-  </si>
-  <si>
-    <t>1+3+5+283</t>
-  </si>
-  <si>
-    <t>2+4+6+284</t>
-  </si>
-  <si>
-    <t>3+6+285</t>
-  </si>
-  <si>
-    <t>1+3+5+284</t>
-  </si>
-  <si>
-    <t>2+4+6+285</t>
-  </si>
-  <si>
-    <t>3+6+286</t>
-  </si>
-  <si>
-    <t>1+3+5+285</t>
-  </si>
-  <si>
-    <t>2+4+6+286</t>
-  </si>
-  <si>
-    <t>3+6+287</t>
-  </si>
-  <si>
-    <t>1+3+5+286</t>
-  </si>
-  <si>
-    <t>2+4+6+287</t>
-  </si>
-  <si>
-    <t>3+6+288</t>
-  </si>
-  <si>
-    <t>1+3+5+287</t>
-  </si>
-  <si>
-    <t>2+4+6+288</t>
-  </si>
-  <si>
-    <t>3+6+289</t>
-  </si>
-  <si>
-    <t>1+3+5+288</t>
-  </si>
-  <si>
-    <t>2+4+6+289</t>
-  </si>
-  <si>
-    <t>3+6+290</t>
-  </si>
-  <si>
-    <t>1+3+5+289</t>
-  </si>
-  <si>
-    <t>2+4+6+290</t>
-  </si>
-  <si>
-    <t>3+6+291</t>
-  </si>
-  <si>
-    <t>1+3+5+290</t>
-  </si>
-  <si>
-    <t>2+4+6+291</t>
-  </si>
-  <si>
-    <t>3+6+292</t>
-  </si>
-  <si>
-    <t>1+3+5+291</t>
-  </si>
-  <si>
-    <t>2+4+6+292</t>
-  </si>
-  <si>
-    <t>3+6+293</t>
-  </si>
-  <si>
-    <t>1+3+5+292</t>
-  </si>
-  <si>
-    <t>2+4+6+293</t>
-  </si>
-  <si>
-    <t>3+6+294</t>
-  </si>
-  <si>
-    <t>1+3+5+293</t>
-  </si>
-  <si>
-    <t>2+4+6+294</t>
-  </si>
-  <si>
-    <t>3+6+295</t>
-  </si>
-  <si>
-    <t>1+3+5+294</t>
-  </si>
-  <si>
-    <t>2+4+6+295</t>
-  </si>
-  <si>
-    <t>3+6+296</t>
-  </si>
-  <si>
-    <t>1+3+5+295</t>
-  </si>
-  <si>
-    <t>2+4+6+296</t>
-  </si>
-  <si>
-    <t>3+6+297</t>
-  </si>
-  <si>
-    <t>1+3+5+296</t>
-  </si>
-  <si>
-    <t>2+4+6+297</t>
-  </si>
-  <si>
-    <t>3+6+298</t>
-  </si>
-  <si>
-    <t>1+3+5+297</t>
-  </si>
-  <si>
-    <t>2+4+6+298</t>
-  </si>
-  <si>
-    <t>3+6+299</t>
-  </si>
-  <si>
-    <t>1+3+5+298</t>
-  </si>
-  <si>
-    <t>2+4+6+299</t>
-  </si>
-  <si>
-    <t>3+6+300</t>
-  </si>
-  <si>
-    <t>1+3+5+299</t>
-  </si>
-  <si>
-    <t>2+4+6+300</t>
-  </si>
-  <si>
-    <t>3+6+301</t>
-  </si>
-  <si>
-    <t>1+3+5+300</t>
-  </si>
-  <si>
-    <t>2+4+6+301</t>
-  </si>
-  <si>
-    <t>3+6+302</t>
-  </si>
-  <si>
-    <t>1+3+5+301</t>
-  </si>
-  <si>
-    <t>2+4+6+302</t>
-  </si>
-  <si>
-    <t>3+6+303</t>
-  </si>
-  <si>
-    <t>1+3+5+302</t>
-  </si>
-  <si>
-    <t>2+4+6+303</t>
-  </si>
-  <si>
-    <t>3+6+304</t>
-  </si>
-  <si>
-    <t>1+3+5+303</t>
-  </si>
-  <si>
-    <t>2+4+6+304</t>
-  </si>
-  <si>
-    <t>3+6+305</t>
-  </si>
-  <si>
-    <t>1+3+5+304</t>
-  </si>
-  <si>
-    <t>2+4+6+305</t>
-  </si>
-  <si>
-    <t>3+6+306</t>
-  </si>
-  <si>
-    <t>1+3+5+305</t>
-  </si>
-  <si>
-    <t>2+4+6+306</t>
-  </si>
-  <si>
-    <t>3+6+307</t>
-  </si>
-  <si>
-    <t>1+3+5+306</t>
-  </si>
-  <si>
-    <t>2+4+6+307</t>
-  </si>
-  <si>
-    <t>3+6+308</t>
-  </si>
-  <si>
-    <t>1+3+5+307</t>
-  </si>
-  <si>
-    <t>2+4+6+308</t>
-  </si>
-  <si>
-    <t>3+6+309</t>
-  </si>
-  <si>
-    <t>1+3+5+308</t>
-  </si>
-  <si>
-    <t>2+4+6+309</t>
-  </si>
-  <si>
-    <t>3+6+310</t>
-  </si>
-  <si>
-    <t>1+3+5+309</t>
-  </si>
-  <si>
-    <t>2+4+6+310</t>
-  </si>
-  <si>
-    <t>3+6+311</t>
-  </si>
-  <si>
-    <t>1+3+5+310</t>
-  </si>
-  <si>
-    <t>2+4+6+311</t>
-  </si>
-  <si>
-    <t>3+6+312</t>
-  </si>
-  <si>
-    <t>1+3+5+311</t>
-  </si>
-  <si>
-    <t>2+4+6+312</t>
-  </si>
-  <si>
-    <t>3+6+313</t>
-  </si>
-  <si>
-    <t>1+3+5+312</t>
-  </si>
-  <si>
-    <t>2+4+6+313</t>
-  </si>
-  <si>
-    <t>3+6+314</t>
-  </si>
-  <si>
-    <t>1+3+5+313</t>
-  </si>
-  <si>
-    <t>2+4+6+314</t>
-  </si>
-  <si>
-    <t>3+6+315</t>
-  </si>
-  <si>
-    <t>1+3+5+314</t>
-  </si>
-  <si>
-    <t>2+4+6+315</t>
-  </si>
-  <si>
-    <t>3+6+316</t>
-  </si>
-  <si>
-    <t>1+3+5+315</t>
-  </si>
-  <si>
-    <t>2+4+6+316</t>
-  </si>
-  <si>
-    <t>3+6+317</t>
-  </si>
-  <si>
-    <t>1+3+5+316</t>
-  </si>
-  <si>
-    <t>2+4+6+317</t>
-  </si>
-  <si>
-    <t>3+6+318</t>
-  </si>
-  <si>
-    <t>1+3+5+317</t>
-  </si>
-  <si>
-    <t>2+4+6+318</t>
-  </si>
-  <si>
-    <t>3+6+319</t>
-  </si>
-  <si>
-    <t>1+3+5+318</t>
-  </si>
-  <si>
-    <t>2+4+6+319</t>
-  </si>
-  <si>
-    <t>3+6+320</t>
-  </si>
-  <si>
-    <t>1+3+5+319</t>
-  </si>
-  <si>
-    <t>2+4+6+320</t>
-  </si>
-  <si>
-    <t>3+6+321</t>
-  </si>
-  <si>
-    <t>1+3+5+320</t>
-  </si>
-  <si>
-    <t>2+4+6+321</t>
-  </si>
-  <si>
-    <t>3+6+322</t>
-  </si>
-  <si>
-    <t>1+3+5+321</t>
-  </si>
-  <si>
-    <t>2+4+6+322</t>
-  </si>
-  <si>
-    <t>3+6+323</t>
-  </si>
-  <si>
-    <t>1+3+5+322</t>
-  </si>
-  <si>
-    <t>2+4+6+323</t>
-  </si>
-  <si>
-    <t>3+6+324</t>
-  </si>
-  <si>
-    <t>1+3+5+323</t>
-  </si>
-  <si>
-    <t>2+4+6+324</t>
-  </si>
-  <si>
-    <t>3+6+325</t>
-  </si>
-  <si>
-    <t>1+3+5+324</t>
-  </si>
-  <si>
-    <t>2+4+6+325</t>
-  </si>
-  <si>
-    <t>3+6+326</t>
-  </si>
-  <si>
-    <t>1+3+5+325</t>
-  </si>
-  <si>
-    <t>2+4+6+326</t>
-  </si>
-  <si>
-    <t>3+6+327</t>
-  </si>
-  <si>
-    <t>1+3+5+326</t>
-  </si>
-  <si>
-    <t>2+4+6+327</t>
-  </si>
-  <si>
-    <t>3+6+328</t>
-  </si>
-  <si>
-    <t>1+3+5+327</t>
-  </si>
-  <si>
-    <t>2+4+6+328</t>
-  </si>
-  <si>
-    <t>3+6+329</t>
-  </si>
-  <si>
-    <t>1+3+5+328</t>
-  </si>
-  <si>
-    <t>2+4+6+329</t>
-  </si>
-  <si>
-    <t>3+6+330</t>
-  </si>
-  <si>
-    <t>1+3+5+329</t>
-  </si>
-  <si>
-    <t>2+4+6+330</t>
-  </si>
-  <si>
-    <t>3+6+331</t>
-  </si>
-  <si>
-    <t>1+3+5+330</t>
-  </si>
-  <si>
-    <t>2+4+6+331</t>
-  </si>
-  <si>
-    <t>3+6+332</t>
-  </si>
-  <si>
-    <t>1+3+5+331</t>
-  </si>
-  <si>
-    <t>2+4+6+332</t>
-  </si>
-  <si>
-    <t>3+6+333</t>
-  </si>
-  <si>
-    <t>1+3+5+332</t>
-  </si>
-  <si>
-    <t>2+4+6+333</t>
-  </si>
-  <si>
-    <t>3+6+334</t>
-  </si>
-  <si>
-    <t>1+3+5+333</t>
-  </si>
-  <si>
-    <t>2+4+6+334</t>
-  </si>
-  <si>
-    <t>3+6+335</t>
-  </si>
-  <si>
-    <t>1+3+5+334</t>
-  </si>
-  <si>
-    <t>2+4+6+335</t>
-  </si>
-  <si>
-    <t>3+6+336</t>
-  </si>
-  <si>
-    <t>1+3+5+335</t>
-  </si>
-  <si>
-    <t>2+4+6+336</t>
-  </si>
-  <si>
-    <t>3+6+337</t>
-  </si>
-  <si>
-    <t>1+3+5+336</t>
-  </si>
-  <si>
-    <t>2+4+6+337</t>
-  </si>
-  <si>
-    <t>3+6+338</t>
-  </si>
-  <si>
-    <t>1+3+5+337</t>
-  </si>
-  <si>
-    <t>2+4+6+338</t>
-  </si>
-  <si>
-    <t>3+6+339</t>
-  </si>
-  <si>
-    <t>1+3+5+338</t>
+    <t>3#6#9</t>
+  </si>
+  <si>
+    <t>1#3#5#8</t>
+  </si>
+  <si>
+    <t>2#4#6#9</t>
+  </si>
+  <si>
+    <t>3#6#10</t>
+  </si>
+  <si>
+    <t>1#3#5#9</t>
+  </si>
+  <si>
+    <t>2#4#6#10</t>
+  </si>
+  <si>
+    <t>3#6#11</t>
+  </si>
+  <si>
+    <t>1#3#5#10</t>
+  </si>
+  <si>
+    <t>2#4#6#11</t>
+  </si>
+  <si>
+    <t>3#6#12</t>
+  </si>
+  <si>
+    <t>1#3#5#11</t>
+  </si>
+  <si>
+    <t>2#4#6#12</t>
+  </si>
+  <si>
+    <t>3#6#13</t>
+  </si>
+  <si>
+    <t>1#3#5#12</t>
+  </si>
+  <si>
+    <t>2#4#6#13</t>
+  </si>
+  <si>
+    <t>3#6#14</t>
+  </si>
+  <si>
+    <t>1#3#5#13</t>
+  </si>
+  <si>
+    <t>2#4#6#14</t>
+  </si>
+  <si>
+    <t>3#6#15</t>
+  </si>
+  <si>
+    <t>1#3#5#14</t>
+  </si>
+  <si>
+    <t>2#4#6#15</t>
+  </si>
+  <si>
+    <t>3#6#16</t>
+  </si>
+  <si>
+    <t>1#3#5#15</t>
+  </si>
+  <si>
+    <t>2#4#6#16</t>
+  </si>
+  <si>
+    <t>3#6#17</t>
+  </si>
+  <si>
+    <t>1#3#5#16</t>
+  </si>
+  <si>
+    <t>2#4#6#17</t>
+  </si>
+  <si>
+    <t>3#6#18</t>
+  </si>
+  <si>
+    <t>1#3#5#17</t>
+  </si>
+  <si>
+    <t>2#4#6#18</t>
+  </si>
+  <si>
+    <t>3#6#19</t>
+  </si>
+  <si>
+    <t>1#3#5#18</t>
+  </si>
+  <si>
+    <t>2#4#6#19</t>
+  </si>
+  <si>
+    <t>3#6#20</t>
+  </si>
+  <si>
+    <t>1#3#5#19</t>
+  </si>
+  <si>
+    <t>2#4#6#20</t>
+  </si>
+  <si>
+    <t>3#6#21</t>
+  </si>
+  <si>
+    <t>1#3#5#20</t>
+  </si>
+  <si>
+    <t>2#4#6#21</t>
+  </si>
+  <si>
+    <t>3#6#22</t>
+  </si>
+  <si>
+    <t>1#3#5#21</t>
+  </si>
+  <si>
+    <t>2#4#6#22</t>
+  </si>
+  <si>
+    <t>3#6#23</t>
+  </si>
+  <si>
+    <t>1#3#5#22</t>
+  </si>
+  <si>
+    <t>2#4#6#23</t>
+  </si>
+  <si>
+    <t>3#6#24</t>
+  </si>
+  <si>
+    <t>1#3#5#23</t>
+  </si>
+  <si>
+    <t>2#4#6#24</t>
+  </si>
+  <si>
+    <t>3#6#25</t>
+  </si>
+  <si>
+    <t>1#3#5#24</t>
+  </si>
+  <si>
+    <t>2#4#6#25</t>
+  </si>
+  <si>
+    <t>3#6#26</t>
+  </si>
+  <si>
+    <t>1#3#5#25</t>
+  </si>
+  <si>
+    <t>2#4#6#26</t>
+  </si>
+  <si>
+    <t>3#6#27</t>
+  </si>
+  <si>
+    <t>1#3#5#26</t>
+  </si>
+  <si>
+    <t>2#4#6#27</t>
+  </si>
+  <si>
+    <t>3#6#28</t>
+  </si>
+  <si>
+    <t>1#3#5#27</t>
+  </si>
+  <si>
+    <t>2#4#6#28</t>
+  </si>
+  <si>
+    <t>3#6#29</t>
+  </si>
+  <si>
+    <t>1#3#5#28</t>
+  </si>
+  <si>
+    <t>2#4#6#29</t>
+  </si>
+  <si>
+    <t>3#6#30</t>
+  </si>
+  <si>
+    <t>1#3#5#29</t>
+  </si>
+  <si>
+    <t>2#4#6#30</t>
+  </si>
+  <si>
+    <t>3#6#31</t>
+  </si>
+  <si>
+    <t>1#3#5#30</t>
+  </si>
+  <si>
+    <t>2#4#6#31</t>
+  </si>
+  <si>
+    <t>3#6#32</t>
+  </si>
+  <si>
+    <t>1#3#5#31</t>
+  </si>
+  <si>
+    <t>2#4#6#32</t>
+  </si>
+  <si>
+    <t>3#6#33</t>
+  </si>
+  <si>
+    <t>1#3#5#32</t>
+  </si>
+  <si>
+    <t>2#4#6#33</t>
+  </si>
+  <si>
+    <t>3#6#34</t>
+  </si>
+  <si>
+    <t>1#3#5#33</t>
+  </si>
+  <si>
+    <t>2#4#6#34</t>
+  </si>
+  <si>
+    <t>3#6#35</t>
+  </si>
+  <si>
+    <t>1#3#5#34</t>
+  </si>
+  <si>
+    <t>2#4#6#35</t>
+  </si>
+  <si>
+    <t>3#6#36</t>
+  </si>
+  <si>
+    <t>1#3#5#35</t>
+  </si>
+  <si>
+    <t>2#4#6#36</t>
+  </si>
+  <si>
+    <t>3#6#37</t>
+  </si>
+  <si>
+    <t>1#3#5#36</t>
+  </si>
+  <si>
+    <t>2#4#6#37</t>
+  </si>
+  <si>
+    <t>3#6#38</t>
+  </si>
+  <si>
+    <t>1#3#5#37</t>
+  </si>
+  <si>
+    <t>2#4#6#38</t>
+  </si>
+  <si>
+    <t>3#6#39</t>
+  </si>
+  <si>
+    <t>1#3#5#38</t>
+  </si>
+  <si>
+    <t>2#4#6#39</t>
+  </si>
+  <si>
+    <t>3#6#40</t>
+  </si>
+  <si>
+    <t>1#3#5#39</t>
+  </si>
+  <si>
+    <t>2#4#6#40</t>
+  </si>
+  <si>
+    <t>3#6#41</t>
+  </si>
+  <si>
+    <t>1#3#5#40</t>
+  </si>
+  <si>
+    <t>2#4#6#41</t>
+  </si>
+  <si>
+    <t>3#6#42</t>
+  </si>
+  <si>
+    <t>1#3#5#41</t>
+  </si>
+  <si>
+    <t>2#4#6#42</t>
+  </si>
+  <si>
+    <t>3#6#43</t>
+  </si>
+  <si>
+    <t>1#3#5#42</t>
+  </si>
+  <si>
+    <t>2#4#6#43</t>
+  </si>
+  <si>
+    <t>3#6#44</t>
+  </si>
+  <si>
+    <t>1#3#5#43</t>
+  </si>
+  <si>
+    <t>2#4#6#44</t>
+  </si>
+  <si>
+    <t>3#6#45</t>
+  </si>
+  <si>
+    <t>1#3#5#44</t>
+  </si>
+  <si>
+    <t>2#4#6#45</t>
+  </si>
+  <si>
+    <t>3#6#46</t>
+  </si>
+  <si>
+    <t>1#3#5#45</t>
+  </si>
+  <si>
+    <t>2#4#6#46</t>
+  </si>
+  <si>
+    <t>3#6#47</t>
+  </si>
+  <si>
+    <t>1#3#5#46</t>
+  </si>
+  <si>
+    <t>2#4#6#47</t>
+  </si>
+  <si>
+    <t>3#6#48</t>
+  </si>
+  <si>
+    <t>1#3#5#47</t>
+  </si>
+  <si>
+    <t>2#4#6#48</t>
+  </si>
+  <si>
+    <t>3#6#49</t>
+  </si>
+  <si>
+    <t>1#3#5#48</t>
+  </si>
+  <si>
+    <t>2#4#6#49</t>
+  </si>
+  <si>
+    <t>3#6#50</t>
+  </si>
+  <si>
+    <t>1#3#5#49</t>
+  </si>
+  <si>
+    <t>2#4#6#50</t>
+  </si>
+  <si>
+    <t>3#6#51</t>
+  </si>
+  <si>
+    <t>1#3#5#50</t>
+  </si>
+  <si>
+    <t>2#4#6#51</t>
+  </si>
+  <si>
+    <t>3#6#52</t>
+  </si>
+  <si>
+    <t>1#3#5#51</t>
+  </si>
+  <si>
+    <t>2#4#6#52</t>
+  </si>
+  <si>
+    <t>3#6#53</t>
+  </si>
+  <si>
+    <t>1#3#5#52</t>
+  </si>
+  <si>
+    <t>2#4#6#53</t>
+  </si>
+  <si>
+    <t>3#6#54</t>
+  </si>
+  <si>
+    <t>1#3#5#53</t>
+  </si>
+  <si>
+    <t>2#4#6#54</t>
+  </si>
+  <si>
+    <t>3#6#55</t>
+  </si>
+  <si>
+    <t>1#3#5#54</t>
+  </si>
+  <si>
+    <t>2#4#6#55</t>
+  </si>
+  <si>
+    <t>3#6#56</t>
+  </si>
+  <si>
+    <t>1#3#5#55</t>
+  </si>
+  <si>
+    <t>2#4#6#56</t>
+  </si>
+  <si>
+    <t>3#6#57</t>
+  </si>
+  <si>
+    <t>1#3#5#56</t>
+  </si>
+  <si>
+    <t>2#4#6#57</t>
+  </si>
+  <si>
+    <t>3#6#58</t>
+  </si>
+  <si>
+    <t>1#3#5#57</t>
+  </si>
+  <si>
+    <t>2#4#6#58</t>
+  </si>
+  <si>
+    <t>3#6#59</t>
+  </si>
+  <si>
+    <t>1#3#5#58</t>
+  </si>
+  <si>
+    <t>2#4#6#59</t>
+  </si>
+  <si>
+    <t>3#6#60</t>
+  </si>
+  <si>
+    <t>1#3#5#59</t>
+  </si>
+  <si>
+    <t>2#4#6#60</t>
+  </si>
+  <si>
+    <t>3#6#61</t>
+  </si>
+  <si>
+    <t>1#3#5#60</t>
+  </si>
+  <si>
+    <t>2#4#6#61</t>
+  </si>
+  <si>
+    <t>3#6#62</t>
+  </si>
+  <si>
+    <t>1#3#5#61</t>
+  </si>
+  <si>
+    <t>2#4#6#62</t>
+  </si>
+  <si>
+    <t>3#6#63</t>
+  </si>
+  <si>
+    <t>1#3#5#62</t>
+  </si>
+  <si>
+    <t>2#4#6#63</t>
+  </si>
+  <si>
+    <t>3#6#64</t>
+  </si>
+  <si>
+    <t>1#3#5#63</t>
+  </si>
+  <si>
+    <t>2#4#6#64</t>
+  </si>
+  <si>
+    <t>3#6#65</t>
+  </si>
+  <si>
+    <t>1#3#5#64</t>
+  </si>
+  <si>
+    <t>2#4#6#65</t>
+  </si>
+  <si>
+    <t>3#6#66</t>
+  </si>
+  <si>
+    <t>1#3#5#65</t>
+  </si>
+  <si>
+    <t>2#4#6#66</t>
+  </si>
+  <si>
+    <t>3#6#67</t>
+  </si>
+  <si>
+    <t>1#3#5#66</t>
+  </si>
+  <si>
+    <t>2#4#6#67</t>
+  </si>
+  <si>
+    <t>3#6#68</t>
+  </si>
+  <si>
+    <t>1#3#5#67</t>
+  </si>
+  <si>
+    <t>2#4#6#68</t>
+  </si>
+  <si>
+    <t>3#6#69</t>
+  </si>
+  <si>
+    <t>1#3#5#68</t>
+  </si>
+  <si>
+    <t>2#4#6#69</t>
+  </si>
+  <si>
+    <t>3#6#70</t>
+  </si>
+  <si>
+    <t>1#3#5#69</t>
+  </si>
+  <si>
+    <t>2#4#6#70</t>
+  </si>
+  <si>
+    <t>3#6#71</t>
+  </si>
+  <si>
+    <t>1#3#5#70</t>
+  </si>
+  <si>
+    <t>2#4#6#71</t>
+  </si>
+  <si>
+    <t>3#6#72</t>
+  </si>
+  <si>
+    <t>1#3#5#71</t>
+  </si>
+  <si>
+    <t>2#4#6#72</t>
+  </si>
+  <si>
+    <t>3#6#73</t>
+  </si>
+  <si>
+    <t>1#3#5#72</t>
+  </si>
+  <si>
+    <t>2#4#6#73</t>
+  </si>
+  <si>
+    <t>3#6#74</t>
+  </si>
+  <si>
+    <t>1#3#5#73</t>
+  </si>
+  <si>
+    <t>2#4#6#74</t>
+  </si>
+  <si>
+    <t>3#6#75</t>
+  </si>
+  <si>
+    <t>1#3#5#74</t>
+  </si>
+  <si>
+    <t>2#4#6#75</t>
+  </si>
+  <si>
+    <t>3#6#76</t>
+  </si>
+  <si>
+    <t>1#3#5#75</t>
+  </si>
+  <si>
+    <t>2#4#6#76</t>
+  </si>
+  <si>
+    <t>3#6#77</t>
+  </si>
+  <si>
+    <t>1#3#5#76</t>
+  </si>
+  <si>
+    <t>2#4#6#77</t>
+  </si>
+  <si>
+    <t>3#6#78</t>
+  </si>
+  <si>
+    <t>1#3#5#77</t>
+  </si>
+  <si>
+    <t>2#4#6#78</t>
+  </si>
+  <si>
+    <t>3#6#79</t>
+  </si>
+  <si>
+    <t>1#3#5#78</t>
+  </si>
+  <si>
+    <t>2#4#6#79</t>
+  </si>
+  <si>
+    <t>3#6#80</t>
+  </si>
+  <si>
+    <t>1#3#5#79</t>
+  </si>
+  <si>
+    <t>2#4#6#80</t>
+  </si>
+  <si>
+    <t>3#6#81</t>
+  </si>
+  <si>
+    <t>1#3#5#80</t>
+  </si>
+  <si>
+    <t>2#4#6#81</t>
+  </si>
+  <si>
+    <t>3#6#82</t>
+  </si>
+  <si>
+    <t>1#3#5#81</t>
+  </si>
+  <si>
+    <t>2#4#6#82</t>
+  </si>
+  <si>
+    <t>3#6#83</t>
+  </si>
+  <si>
+    <t>1#3#5#82</t>
+  </si>
+  <si>
+    <t>2#4#6#83</t>
+  </si>
+  <si>
+    <t>3#6#84</t>
+  </si>
+  <si>
+    <t>1#3#5#83</t>
+  </si>
+  <si>
+    <t>2#4#6#84</t>
+  </si>
+  <si>
+    <t>3#6#85</t>
+  </si>
+  <si>
+    <t>1#3#5#84</t>
+  </si>
+  <si>
+    <t>2#4#6#85</t>
+  </si>
+  <si>
+    <t>3#6#86</t>
+  </si>
+  <si>
+    <t>1#3#5#85</t>
+  </si>
+  <si>
+    <t>2#4#6#86</t>
+  </si>
+  <si>
+    <t>3#6#87</t>
+  </si>
+  <si>
+    <t>1#3#5#86</t>
+  </si>
+  <si>
+    <t>2#4#6#87</t>
+  </si>
+  <si>
+    <t>3#6#88</t>
+  </si>
+  <si>
+    <t>1#3#5#87</t>
+  </si>
+  <si>
+    <t>2#4#6#88</t>
+  </si>
+  <si>
+    <t>3#6#89</t>
+  </si>
+  <si>
+    <t>1#3#5#88</t>
+  </si>
+  <si>
+    <t>2#4#6#89</t>
+  </si>
+  <si>
+    <t>3#6#90</t>
+  </si>
+  <si>
+    <t>1#3#5#89</t>
+  </si>
+  <si>
+    <t>2#4#6#90</t>
+  </si>
+  <si>
+    <t>3#6#91</t>
+  </si>
+  <si>
+    <t>1#3#5#90</t>
+  </si>
+  <si>
+    <t>2#4#6#91</t>
+  </si>
+  <si>
+    <t>3#6#92</t>
+  </si>
+  <si>
+    <t>1#3#5#91</t>
+  </si>
+  <si>
+    <t>2#4#6#92</t>
+  </si>
+  <si>
+    <t>3#6#93</t>
+  </si>
+  <si>
+    <t>1#3#5#92</t>
+  </si>
+  <si>
+    <t>2#4#6#93</t>
+  </si>
+  <si>
+    <t>3#6#94</t>
+  </si>
+  <si>
+    <t>1#3#5#93</t>
+  </si>
+  <si>
+    <t>2#4#6#94</t>
+  </si>
+  <si>
+    <t>3#6#95</t>
+  </si>
+  <si>
+    <t>1#3#5#94</t>
+  </si>
+  <si>
+    <t>2#4#6#95</t>
+  </si>
+  <si>
+    <t>3#6#96</t>
+  </si>
+  <si>
+    <t>1#3#5#95</t>
+  </si>
+  <si>
+    <t>2#4#6#96</t>
+  </si>
+  <si>
+    <t>3#6#97</t>
+  </si>
+  <si>
+    <t>1#3#5#96</t>
+  </si>
+  <si>
+    <t>2#4#6#97</t>
+  </si>
+  <si>
+    <t>3#6#98</t>
+  </si>
+  <si>
+    <t>1#3#5#97</t>
+  </si>
+  <si>
+    <t>2#4#6#98</t>
+  </si>
+  <si>
+    <t>3#6#99</t>
+  </si>
+  <si>
+    <t>1#3#5#98</t>
+  </si>
+  <si>
+    <t>2#4#6#99</t>
+  </si>
+  <si>
+    <t>3#6#100</t>
+  </si>
+  <si>
+    <t>1#3#5#99</t>
+  </si>
+  <si>
+    <t>2#4#6#100</t>
+  </si>
+  <si>
+    <t>3#6#101</t>
+  </si>
+  <si>
+    <t>1#3#5#100</t>
+  </si>
+  <si>
+    <t>2#4#6#101</t>
+  </si>
+  <si>
+    <t>3#6#102</t>
+  </si>
+  <si>
+    <t>1#3#5#101</t>
+  </si>
+  <si>
+    <t>2#4#6#102</t>
+  </si>
+  <si>
+    <t>3#6#103</t>
+  </si>
+  <si>
+    <t>1#3#5#102</t>
+  </si>
+  <si>
+    <t>2#4#6#103</t>
+  </si>
+  <si>
+    <t>3#6#104</t>
+  </si>
+  <si>
+    <t>1#3#5#103</t>
+  </si>
+  <si>
+    <t>2#4#6#104</t>
+  </si>
+  <si>
+    <t>3#6#105</t>
+  </si>
+  <si>
+    <t>1#3#5#104</t>
+  </si>
+  <si>
+    <t>2#4#6#105</t>
+  </si>
+  <si>
+    <t>3#6#106</t>
+  </si>
+  <si>
+    <t>1#3#5#105</t>
+  </si>
+  <si>
+    <t>2#4#6#106</t>
+  </si>
+  <si>
+    <t>3#6#107</t>
+  </si>
+  <si>
+    <t>1#3#5#106</t>
+  </si>
+  <si>
+    <t>2#4#6#107</t>
+  </si>
+  <si>
+    <t>3#6#108</t>
+  </si>
+  <si>
+    <t>1#3#5#107</t>
+  </si>
+  <si>
+    <t>2#4#6#108</t>
+  </si>
+  <si>
+    <t>3#6#109</t>
+  </si>
+  <si>
+    <t>1#3#5#108</t>
+  </si>
+  <si>
+    <t>2#4#6#109</t>
+  </si>
+  <si>
+    <t>3#6#110</t>
+  </si>
+  <si>
+    <t>1#3#5#109</t>
+  </si>
+  <si>
+    <t>2#4#6#110</t>
+  </si>
+  <si>
+    <t>3#6#111</t>
+  </si>
+  <si>
+    <t>1#3#5#110</t>
+  </si>
+  <si>
+    <t>2#4#6#111</t>
+  </si>
+  <si>
+    <t>3#6#112</t>
+  </si>
+  <si>
+    <t>1#3#5#111</t>
+  </si>
+  <si>
+    <t>2#4#6#112</t>
+  </si>
+  <si>
+    <t>3#6#113</t>
+  </si>
+  <si>
+    <t>1#3#5#112</t>
+  </si>
+  <si>
+    <t>2#4#6#113</t>
+  </si>
+  <si>
+    <t>3#6#114</t>
+  </si>
+  <si>
+    <t>1#3#5#113</t>
+  </si>
+  <si>
+    <t>2#4#6#114</t>
+  </si>
+  <si>
+    <t>3#6#115</t>
+  </si>
+  <si>
+    <t>1#3#5#114</t>
+  </si>
+  <si>
+    <t>2#4#6#115</t>
+  </si>
+  <si>
+    <t>3#6#116</t>
+  </si>
+  <si>
+    <t>1#3#5#115</t>
+  </si>
+  <si>
+    <t>2#4#6#116</t>
+  </si>
+  <si>
+    <t>3#6#117</t>
+  </si>
+  <si>
+    <t>1#3#5#116</t>
+  </si>
+  <si>
+    <t>2#4#6#117</t>
+  </si>
+  <si>
+    <t>3#6#118</t>
+  </si>
+  <si>
+    <t>1#3#5#117</t>
+  </si>
+  <si>
+    <t>2#4#6#118</t>
+  </si>
+  <si>
+    <t>3#6#119</t>
+  </si>
+  <si>
+    <t>1#3#5#118</t>
+  </si>
+  <si>
+    <t>2#4#6#119</t>
+  </si>
+  <si>
+    <t>3#6#120</t>
+  </si>
+  <si>
+    <t>1#3#5#119</t>
+  </si>
+  <si>
+    <t>2#4#6#120</t>
+  </si>
+  <si>
+    <t>3#6#121</t>
+  </si>
+  <si>
+    <t>1#3#5#120</t>
+  </si>
+  <si>
+    <t>2#4#6#121</t>
+  </si>
+  <si>
+    <t>3#6#122</t>
+  </si>
+  <si>
+    <t>1#3#5#121</t>
+  </si>
+  <si>
+    <t>2#4#6#122</t>
+  </si>
+  <si>
+    <t>3#6#123</t>
+  </si>
+  <si>
+    <t>1#3#5#122</t>
+  </si>
+  <si>
+    <t>2#4#6#123</t>
+  </si>
+  <si>
+    <t>3#6#124</t>
+  </si>
+  <si>
+    <t>1#3#5#123</t>
+  </si>
+  <si>
+    <t>2#4#6#124</t>
+  </si>
+  <si>
+    <t>3#6#125</t>
+  </si>
+  <si>
+    <t>1#3#5#124</t>
+  </si>
+  <si>
+    <t>2#4#6#125</t>
+  </si>
+  <si>
+    <t>3#6#126</t>
+  </si>
+  <si>
+    <t>1#3#5#125</t>
+  </si>
+  <si>
+    <t>2#4#6#126</t>
+  </si>
+  <si>
+    <t>3#6#127</t>
+  </si>
+  <si>
+    <t>1#3#5#126</t>
+  </si>
+  <si>
+    <t>2#4#6#127</t>
+  </si>
+  <si>
+    <t>3#6#128</t>
+  </si>
+  <si>
+    <t>1#3#5#127</t>
+  </si>
+  <si>
+    <t>2#4#6#128</t>
+  </si>
+  <si>
+    <t>3#6#129</t>
+  </si>
+  <si>
+    <t>1#3#5#128</t>
+  </si>
+  <si>
+    <t>2#4#6#129</t>
+  </si>
+  <si>
+    <t>3#6#130</t>
+  </si>
+  <si>
+    <t>1#3#5#129</t>
+  </si>
+  <si>
+    <t>2#4#6#130</t>
+  </si>
+  <si>
+    <t>3#6#131</t>
+  </si>
+  <si>
+    <t>1#3#5#130</t>
+  </si>
+  <si>
+    <t>2#4#6#131</t>
+  </si>
+  <si>
+    <t>3#6#132</t>
+  </si>
+  <si>
+    <t>1#3#5#131</t>
+  </si>
+  <si>
+    <t>2#4#6#132</t>
+  </si>
+  <si>
+    <t>3#6#133</t>
+  </si>
+  <si>
+    <t>1#3#5#132</t>
+  </si>
+  <si>
+    <t>2#4#6#133</t>
+  </si>
+  <si>
+    <t>3#6#134</t>
+  </si>
+  <si>
+    <t>1#3#5#133</t>
+  </si>
+  <si>
+    <t>2#4#6#134</t>
+  </si>
+  <si>
+    <t>3#6#135</t>
+  </si>
+  <si>
+    <t>1#3#5#134</t>
+  </si>
+  <si>
+    <t>2#4#6#135</t>
+  </si>
+  <si>
+    <t>3#6#136</t>
+  </si>
+  <si>
+    <t>1#3#5#135</t>
+  </si>
+  <si>
+    <t>2#4#6#136</t>
+  </si>
+  <si>
+    <t>3#6#137</t>
+  </si>
+  <si>
+    <t>1#3#5#136</t>
+  </si>
+  <si>
+    <t>2#4#6#137</t>
+  </si>
+  <si>
+    <t>3#6#138</t>
+  </si>
+  <si>
+    <t>1#3#5#137</t>
+  </si>
+  <si>
+    <t>2#4#6#138</t>
+  </si>
+  <si>
+    <t>3#6#139</t>
+  </si>
+  <si>
+    <t>1#3#5#138</t>
+  </si>
+  <si>
+    <t>2#4#6#139</t>
+  </si>
+  <si>
+    <t>3#6#140</t>
+  </si>
+  <si>
+    <t>1#3#5#139</t>
+  </si>
+  <si>
+    <t>2#4#6#140</t>
+  </si>
+  <si>
+    <t>3#6#141</t>
+  </si>
+  <si>
+    <t>1#3#5#140</t>
+  </si>
+  <si>
+    <t>2#4#6#141</t>
+  </si>
+  <si>
+    <t>3#6#142</t>
+  </si>
+  <si>
+    <t>1#3#5#141</t>
+  </si>
+  <si>
+    <t>2#4#6#142</t>
+  </si>
+  <si>
+    <t>3#6#143</t>
+  </si>
+  <si>
+    <t>1#3#5#142</t>
+  </si>
+  <si>
+    <t>2#4#6#143</t>
+  </si>
+  <si>
+    <t>3#6#144</t>
+  </si>
+  <si>
+    <t>1#3#5#143</t>
+  </si>
+  <si>
+    <t>2#4#6#144</t>
+  </si>
+  <si>
+    <t>3#6#145</t>
+  </si>
+  <si>
+    <t>1#3#5#144</t>
+  </si>
+  <si>
+    <t>2#4#6#145</t>
+  </si>
+  <si>
+    <t>3#6#146</t>
+  </si>
+  <si>
+    <t>1#3#5#145</t>
+  </si>
+  <si>
+    <t>2#4#6#146</t>
+  </si>
+  <si>
+    <t>3#6#147</t>
+  </si>
+  <si>
+    <t>1#3#5#146</t>
+  </si>
+  <si>
+    <t>2#4#6#147</t>
+  </si>
+  <si>
+    <t>3#6#148</t>
+  </si>
+  <si>
+    <t>1#3#5#147</t>
+  </si>
+  <si>
+    <t>2#4#6#148</t>
+  </si>
+  <si>
+    <t>3#6#149</t>
+  </si>
+  <si>
+    <t>1#3#5#148</t>
+  </si>
+  <si>
+    <t>2#4#6#149</t>
+  </si>
+  <si>
+    <t>3#6#150</t>
+  </si>
+  <si>
+    <t>1#3#5#149</t>
+  </si>
+  <si>
+    <t>2#4#6#150</t>
+  </si>
+  <si>
+    <t>3#6#151</t>
+  </si>
+  <si>
+    <t>1#3#5#150</t>
+  </si>
+  <si>
+    <t>2#4#6#151</t>
+  </si>
+  <si>
+    <t>3#6#152</t>
+  </si>
+  <si>
+    <t>1#3#5#151</t>
+  </si>
+  <si>
+    <t>2#4#6#152</t>
+  </si>
+  <si>
+    <t>3#6#153</t>
+  </si>
+  <si>
+    <t>1#3#5#152</t>
+  </si>
+  <si>
+    <t>2#4#6#153</t>
+  </si>
+  <si>
+    <t>3#6#154</t>
+  </si>
+  <si>
+    <t>1#3#5#153</t>
+  </si>
+  <si>
+    <t>2#4#6#154</t>
+  </si>
+  <si>
+    <t>3#6#155</t>
+  </si>
+  <si>
+    <t>1#3#5#154</t>
+  </si>
+  <si>
+    <t>2#4#6#155</t>
+  </si>
+  <si>
+    <t>3#6#156</t>
+  </si>
+  <si>
+    <t>1#3#5#155</t>
+  </si>
+  <si>
+    <t>2#4#6#156</t>
+  </si>
+  <si>
+    <t>3#6#157</t>
+  </si>
+  <si>
+    <t>1#3#5#156</t>
+  </si>
+  <si>
+    <t>2#4#6#157</t>
+  </si>
+  <si>
+    <t>3#6#158</t>
+  </si>
+  <si>
+    <t>1#3#5#157</t>
+  </si>
+  <si>
+    <t>2#4#6#158</t>
+  </si>
+  <si>
+    <t>3#6#159</t>
+  </si>
+  <si>
+    <t>1#3#5#158</t>
+  </si>
+  <si>
+    <t>2#4#6#159</t>
+  </si>
+  <si>
+    <t>3#6#160</t>
+  </si>
+  <si>
+    <t>1#3#5#159</t>
+  </si>
+  <si>
+    <t>2#4#6#160</t>
+  </si>
+  <si>
+    <t>3#6#161</t>
+  </si>
+  <si>
+    <t>1#3#5#160</t>
+  </si>
+  <si>
+    <t>2#4#6#161</t>
+  </si>
+  <si>
+    <t>3#6#162</t>
+  </si>
+  <si>
+    <t>1#3#5#161</t>
+  </si>
+  <si>
+    <t>2#4#6#162</t>
+  </si>
+  <si>
+    <t>3#6#163</t>
+  </si>
+  <si>
+    <t>1#3#5#162</t>
+  </si>
+  <si>
+    <t>2#4#6#163</t>
+  </si>
+  <si>
+    <t>3#6#164</t>
+  </si>
+  <si>
+    <t>1#3#5#163</t>
+  </si>
+  <si>
+    <t>2#4#6#164</t>
+  </si>
+  <si>
+    <t>3#6#165</t>
+  </si>
+  <si>
+    <t>1#3#5#164</t>
+  </si>
+  <si>
+    <t>2#4#6#165</t>
+  </si>
+  <si>
+    <t>3#6#166</t>
+  </si>
+  <si>
+    <t>1#3#5#165</t>
+  </si>
+  <si>
+    <t>2#4#6#166</t>
+  </si>
+  <si>
+    <t>3#6#167</t>
+  </si>
+  <si>
+    <t>1#3#5#166</t>
+  </si>
+  <si>
+    <t>2#4#6#167</t>
+  </si>
+  <si>
+    <t>3#6#168</t>
+  </si>
+  <si>
+    <t>1#3#5#167</t>
+  </si>
+  <si>
+    <t>2#4#6#168</t>
+  </si>
+  <si>
+    <t>3#6#169</t>
+  </si>
+  <si>
+    <t>1#3#5#168</t>
+  </si>
+  <si>
+    <t>2#4#6#169</t>
+  </si>
+  <si>
+    <t>3#6#170</t>
+  </si>
+  <si>
+    <t>1#3#5#169</t>
+  </si>
+  <si>
+    <t>2#4#6#170</t>
+  </si>
+  <si>
+    <t>3#6#171</t>
+  </si>
+  <si>
+    <t>1#3#5#170</t>
+  </si>
+  <si>
+    <t>2#4#6#171</t>
+  </si>
+  <si>
+    <t>3#6#172</t>
+  </si>
+  <si>
+    <t>1#3#5#171</t>
+  </si>
+  <si>
+    <t>2#4#6#172</t>
+  </si>
+  <si>
+    <t>3#6#173</t>
+  </si>
+  <si>
+    <t>1#3#5#172</t>
+  </si>
+  <si>
+    <t>2#4#6#173</t>
+  </si>
+  <si>
+    <t>3#6#174</t>
+  </si>
+  <si>
+    <t>1#3#5#173</t>
+  </si>
+  <si>
+    <t>2#4#6#174</t>
+  </si>
+  <si>
+    <t>3#6#175</t>
+  </si>
+  <si>
+    <t>1#3#5#174</t>
+  </si>
+  <si>
+    <t>2#4#6#175</t>
+  </si>
+  <si>
+    <t>3#6#176</t>
+  </si>
+  <si>
+    <t>1#3#5#175</t>
+  </si>
+  <si>
+    <t>2#4#6#176</t>
+  </si>
+  <si>
+    <t>3#6#177</t>
+  </si>
+  <si>
+    <t>1#3#5#176</t>
+  </si>
+  <si>
+    <t>2#4#6#177</t>
+  </si>
+  <si>
+    <t>3#6#178</t>
+  </si>
+  <si>
+    <t>1#3#5#177</t>
+  </si>
+  <si>
+    <t>2#4#6#178</t>
+  </si>
+  <si>
+    <t>3#6#179</t>
+  </si>
+  <si>
+    <t>1#3#5#178</t>
+  </si>
+  <si>
+    <t>2#4#6#179</t>
+  </si>
+  <si>
+    <t>3#6#180</t>
+  </si>
+  <si>
+    <t>1#3#5#179</t>
+  </si>
+  <si>
+    <t>2#4#6#180</t>
+  </si>
+  <si>
+    <t>3#6#181</t>
+  </si>
+  <si>
+    <t>1#3#5#180</t>
+  </si>
+  <si>
+    <t>2#4#6#181</t>
+  </si>
+  <si>
+    <t>3#6#182</t>
+  </si>
+  <si>
+    <t>1#3#5#181</t>
+  </si>
+  <si>
+    <t>2#4#6#182</t>
+  </si>
+  <si>
+    <t>3#6#183</t>
+  </si>
+  <si>
+    <t>1#3#5#182</t>
+  </si>
+  <si>
+    <t>2#4#6#183</t>
+  </si>
+  <si>
+    <t>3#6#184</t>
+  </si>
+  <si>
+    <t>1#3#5#183</t>
+  </si>
+  <si>
+    <t>2#4#6#184</t>
+  </si>
+  <si>
+    <t>3#6#185</t>
+  </si>
+  <si>
+    <t>1#3#5#184</t>
+  </si>
+  <si>
+    <t>2#4#6#185</t>
+  </si>
+  <si>
+    <t>3#6#186</t>
+  </si>
+  <si>
+    <t>1#3#5#185</t>
+  </si>
+  <si>
+    <t>2#4#6#186</t>
+  </si>
+  <si>
+    <t>3#6#187</t>
+  </si>
+  <si>
+    <t>1#3#5#186</t>
+  </si>
+  <si>
+    <t>2#4#6#187</t>
+  </si>
+  <si>
+    <t>3#6#188</t>
+  </si>
+  <si>
+    <t>1#3#5#187</t>
+  </si>
+  <si>
+    <t>2#4#6#188</t>
+  </si>
+  <si>
+    <t>3#6#189</t>
+  </si>
+  <si>
+    <t>1#3#5#188</t>
+  </si>
+  <si>
+    <t>2#4#6#189</t>
+  </si>
+  <si>
+    <t>3#6#190</t>
+  </si>
+  <si>
+    <t>1#3#5#189</t>
+  </si>
+  <si>
+    <t>2#4#6#190</t>
+  </si>
+  <si>
+    <t>3#6#191</t>
+  </si>
+  <si>
+    <t>1#3#5#190</t>
+  </si>
+  <si>
+    <t>2#4#6#191</t>
+  </si>
+  <si>
+    <t>3#6#192</t>
+  </si>
+  <si>
+    <t>1#3#5#191</t>
+  </si>
+  <si>
+    <t>2#4#6#192</t>
+  </si>
+  <si>
+    <t>3#6#193</t>
+  </si>
+  <si>
+    <t>1#3#5#192</t>
+  </si>
+  <si>
+    <t>2#4#6#193</t>
+  </si>
+  <si>
+    <t>3#6#194</t>
+  </si>
+  <si>
+    <t>1#3#5#193</t>
+  </si>
+  <si>
+    <t>2#4#6#194</t>
+  </si>
+  <si>
+    <t>3#6#195</t>
+  </si>
+  <si>
+    <t>1#3#5#194</t>
+  </si>
+  <si>
+    <t>2#4#6#195</t>
+  </si>
+  <si>
+    <t>3#6#196</t>
+  </si>
+  <si>
+    <t>1#3#5#195</t>
+  </si>
+  <si>
+    <t>2#4#6#196</t>
+  </si>
+  <si>
+    <t>3#6#197</t>
+  </si>
+  <si>
+    <t>1#3#5#196</t>
+  </si>
+  <si>
+    <t>2#4#6#197</t>
+  </si>
+  <si>
+    <t>3#6#198</t>
+  </si>
+  <si>
+    <t>1#3#5#197</t>
+  </si>
+  <si>
+    <t>2#4#6#198</t>
+  </si>
+  <si>
+    <t>3#6#199</t>
+  </si>
+  <si>
+    <t>1#3#5#198</t>
+  </si>
+  <si>
+    <t>2#4#6#199</t>
+  </si>
+  <si>
+    <t>3#6#200</t>
+  </si>
+  <si>
+    <t>1#3#5#199</t>
+  </si>
+  <si>
+    <t>2#4#6#200</t>
+  </si>
+  <si>
+    <t>3#6#201</t>
+  </si>
+  <si>
+    <t>1#3#5#200</t>
+  </si>
+  <si>
+    <t>2#4#6#201</t>
+  </si>
+  <si>
+    <t>3#6#202</t>
+  </si>
+  <si>
+    <t>1#3#5#201</t>
+  </si>
+  <si>
+    <t>2#4#6#202</t>
+  </si>
+  <si>
+    <t>3#6#203</t>
+  </si>
+  <si>
+    <t>1#3#5#202</t>
+  </si>
+  <si>
+    <t>2#4#6#203</t>
+  </si>
+  <si>
+    <t>3#6#204</t>
+  </si>
+  <si>
+    <t>1#3#5#203</t>
+  </si>
+  <si>
+    <t>2#4#6#204</t>
+  </si>
+  <si>
+    <t>3#6#205</t>
+  </si>
+  <si>
+    <t>1#3#5#204</t>
+  </si>
+  <si>
+    <t>2#4#6#205</t>
+  </si>
+  <si>
+    <t>3#6#206</t>
+  </si>
+  <si>
+    <t>1#3#5#205</t>
+  </si>
+  <si>
+    <t>2#4#6#206</t>
+  </si>
+  <si>
+    <t>3#6#207</t>
+  </si>
+  <si>
+    <t>1#3#5#206</t>
+  </si>
+  <si>
+    <t>2#4#6#207</t>
+  </si>
+  <si>
+    <t>3#6#208</t>
+  </si>
+  <si>
+    <t>1#3#5#207</t>
+  </si>
+  <si>
+    <t>2#4#6#208</t>
+  </si>
+  <si>
+    <t>3#6#209</t>
+  </si>
+  <si>
+    <t>1#3#5#208</t>
+  </si>
+  <si>
+    <t>2#4#6#209</t>
+  </si>
+  <si>
+    <t>3#6#210</t>
+  </si>
+  <si>
+    <t>1#3#5#209</t>
+  </si>
+  <si>
+    <t>2#4#6#210</t>
+  </si>
+  <si>
+    <t>3#6#211</t>
+  </si>
+  <si>
+    <t>1#3#5#210</t>
+  </si>
+  <si>
+    <t>2#4#6#211</t>
+  </si>
+  <si>
+    <t>3#6#212</t>
+  </si>
+  <si>
+    <t>1#3#5#211</t>
+  </si>
+  <si>
+    <t>2#4#6#212</t>
+  </si>
+  <si>
+    <t>3#6#213</t>
+  </si>
+  <si>
+    <t>1#3#5#212</t>
+  </si>
+  <si>
+    <t>2#4#6#213</t>
+  </si>
+  <si>
+    <t>3#6#214</t>
+  </si>
+  <si>
+    <t>1#3#5#213</t>
+  </si>
+  <si>
+    <t>2#4#6#214</t>
+  </si>
+  <si>
+    <t>3#6#215</t>
+  </si>
+  <si>
+    <t>1#3#5#214</t>
+  </si>
+  <si>
+    <t>2#4#6#215</t>
+  </si>
+  <si>
+    <t>3#6#216</t>
+  </si>
+  <si>
+    <t>1#3#5#215</t>
+  </si>
+  <si>
+    <t>2#4#6#216</t>
+  </si>
+  <si>
+    <t>3#6#217</t>
+  </si>
+  <si>
+    <t>1#3#5#216</t>
+  </si>
+  <si>
+    <t>2#4#6#217</t>
+  </si>
+  <si>
+    <t>3#6#218</t>
+  </si>
+  <si>
+    <t>1#3#5#217</t>
+  </si>
+  <si>
+    <t>2#4#6#218</t>
+  </si>
+  <si>
+    <t>3#6#219</t>
+  </si>
+  <si>
+    <t>1#3#5#218</t>
+  </si>
+  <si>
+    <t>2#4#6#219</t>
+  </si>
+  <si>
+    <t>3#6#220</t>
+  </si>
+  <si>
+    <t>1#3#5#219</t>
+  </si>
+  <si>
+    <t>2#4#6#220</t>
+  </si>
+  <si>
+    <t>3#6#221</t>
+  </si>
+  <si>
+    <t>1#3#5#220</t>
+  </si>
+  <si>
+    <t>2#4#6#221</t>
+  </si>
+  <si>
+    <t>3#6#222</t>
+  </si>
+  <si>
+    <t>1#3#5#221</t>
+  </si>
+  <si>
+    <t>2#4#6#222</t>
+  </si>
+  <si>
+    <t>3#6#223</t>
+  </si>
+  <si>
+    <t>1#3#5#222</t>
+  </si>
+  <si>
+    <t>2#4#6#223</t>
+  </si>
+  <si>
+    <t>3#6#224</t>
+  </si>
+  <si>
+    <t>1#3#5#223</t>
+  </si>
+  <si>
+    <t>2#4#6#224</t>
+  </si>
+  <si>
+    <t>3#6#225</t>
+  </si>
+  <si>
+    <t>1#3#5#224</t>
+  </si>
+  <si>
+    <t>2#4#6#225</t>
+  </si>
+  <si>
+    <t>3#6#226</t>
+  </si>
+  <si>
+    <t>1#3#5#225</t>
+  </si>
+  <si>
+    <t>2#4#6#226</t>
+  </si>
+  <si>
+    <t>3#6#227</t>
+  </si>
+  <si>
+    <t>1#3#5#226</t>
+  </si>
+  <si>
+    <t>2#4#6#227</t>
+  </si>
+  <si>
+    <t>3#6#228</t>
+  </si>
+  <si>
+    <t>1#3#5#227</t>
+  </si>
+  <si>
+    <t>2#4#6#228</t>
+  </si>
+  <si>
+    <t>3#6#229</t>
+  </si>
+  <si>
+    <t>1#3#5#228</t>
+  </si>
+  <si>
+    <t>2#4#6#229</t>
+  </si>
+  <si>
+    <t>3#6#230</t>
+  </si>
+  <si>
+    <t>1#3#5#229</t>
+  </si>
+  <si>
+    <t>2#4#6#230</t>
+  </si>
+  <si>
+    <t>3#6#231</t>
+  </si>
+  <si>
+    <t>1#3#5#230</t>
+  </si>
+  <si>
+    <t>2#4#6#231</t>
+  </si>
+  <si>
+    <t>3#6#232</t>
+  </si>
+  <si>
+    <t>1#3#5#231</t>
+  </si>
+  <si>
+    <t>2#4#6#232</t>
+  </si>
+  <si>
+    <t>3#6#233</t>
+  </si>
+  <si>
+    <t>1#3#5#232</t>
+  </si>
+  <si>
+    <t>2#4#6#233</t>
+  </si>
+  <si>
+    <t>3#6#234</t>
+  </si>
+  <si>
+    <t>1#3#5#233</t>
+  </si>
+  <si>
+    <t>2#4#6#234</t>
+  </si>
+  <si>
+    <t>3#6#235</t>
+  </si>
+  <si>
+    <t>1#3#5#234</t>
+  </si>
+  <si>
+    <t>2#4#6#235</t>
+  </si>
+  <si>
+    <t>3#6#236</t>
+  </si>
+  <si>
+    <t>1#3#5#235</t>
+  </si>
+  <si>
+    <t>2#4#6#236</t>
+  </si>
+  <si>
+    <t>3#6#237</t>
+  </si>
+  <si>
+    <t>1#3#5#236</t>
+  </si>
+  <si>
+    <t>2#4#6#237</t>
+  </si>
+  <si>
+    <t>3#6#238</t>
+  </si>
+  <si>
+    <t>1#3#5#237</t>
+  </si>
+  <si>
+    <t>2#4#6#238</t>
+  </si>
+  <si>
+    <t>3#6#239</t>
+  </si>
+  <si>
+    <t>1#3#5#238</t>
+  </si>
+  <si>
+    <t>2#4#6#239</t>
+  </si>
+  <si>
+    <t>3#6#240</t>
+  </si>
+  <si>
+    <t>1#3#5#239</t>
+  </si>
+  <si>
+    <t>2#4#6#240</t>
+  </si>
+  <si>
+    <t>3#6#241</t>
+  </si>
+  <si>
+    <t>1#3#5#240</t>
+  </si>
+  <si>
+    <t>2#4#6#241</t>
+  </si>
+  <si>
+    <t>3#6#242</t>
+  </si>
+  <si>
+    <t>1#3#5#241</t>
+  </si>
+  <si>
+    <t>2#4#6#242</t>
+  </si>
+  <si>
+    <t>3#6#243</t>
+  </si>
+  <si>
+    <t>1#3#5#242</t>
+  </si>
+  <si>
+    <t>2#4#6#243</t>
+  </si>
+  <si>
+    <t>3#6#244</t>
+  </si>
+  <si>
+    <t>1#3#5#243</t>
+  </si>
+  <si>
+    <t>2#4#6#244</t>
+  </si>
+  <si>
+    <t>3#6#245</t>
+  </si>
+  <si>
+    <t>1#3#5#244</t>
+  </si>
+  <si>
+    <t>2#4#6#245</t>
+  </si>
+  <si>
+    <t>3#6#246</t>
+  </si>
+  <si>
+    <t>1#3#5#245</t>
+  </si>
+  <si>
+    <t>2#4#6#246</t>
+  </si>
+  <si>
+    <t>3#6#247</t>
+  </si>
+  <si>
+    <t>1#3#5#246</t>
+  </si>
+  <si>
+    <t>2#4#6#247</t>
+  </si>
+  <si>
+    <t>3#6#248</t>
+  </si>
+  <si>
+    <t>1#3#5#247</t>
+  </si>
+  <si>
+    <t>2#4#6#248</t>
+  </si>
+  <si>
+    <t>3#6#249</t>
+  </si>
+  <si>
+    <t>1#3#5#248</t>
+  </si>
+  <si>
+    <t>2#4#6#249</t>
+  </si>
+  <si>
+    <t>3#6#250</t>
+  </si>
+  <si>
+    <t>1#3#5#249</t>
+  </si>
+  <si>
+    <t>2#4#6#250</t>
+  </si>
+  <si>
+    <t>3#6#251</t>
+  </si>
+  <si>
+    <t>1#3#5#250</t>
+  </si>
+  <si>
+    <t>2#4#6#251</t>
+  </si>
+  <si>
+    <t>3#6#252</t>
+  </si>
+  <si>
+    <t>1#3#5#251</t>
+  </si>
+  <si>
+    <t>2#4#6#252</t>
+  </si>
+  <si>
+    <t>3#6#253</t>
+  </si>
+  <si>
+    <t>1#3#5#252</t>
+  </si>
+  <si>
+    <t>2#4#6#253</t>
+  </si>
+  <si>
+    <t>3#6#254</t>
+  </si>
+  <si>
+    <t>1#3#5#253</t>
+  </si>
+  <si>
+    <t>2#4#6#254</t>
+  </si>
+  <si>
+    <t>3#6#255</t>
+  </si>
+  <si>
+    <t>1#3#5#254</t>
+  </si>
+  <si>
+    <t>2#4#6#255</t>
+  </si>
+  <si>
+    <t>3#6#256</t>
+  </si>
+  <si>
+    <t>1#3#5#255</t>
+  </si>
+  <si>
+    <t>2#4#6#256</t>
+  </si>
+  <si>
+    <t>3#6#257</t>
+  </si>
+  <si>
+    <t>1#3#5#256</t>
+  </si>
+  <si>
+    <t>2#4#6#257</t>
+  </si>
+  <si>
+    <t>3#6#258</t>
+  </si>
+  <si>
+    <t>1#3#5#257</t>
+  </si>
+  <si>
+    <t>2#4#6#258</t>
+  </si>
+  <si>
+    <t>3#6#259</t>
+  </si>
+  <si>
+    <t>1#3#5#258</t>
+  </si>
+  <si>
+    <t>2#4#6#259</t>
+  </si>
+  <si>
+    <t>3#6#260</t>
+  </si>
+  <si>
+    <t>1#3#5#259</t>
+  </si>
+  <si>
+    <t>2#4#6#260</t>
+  </si>
+  <si>
+    <t>3#6#261</t>
+  </si>
+  <si>
+    <t>1#3#5#260</t>
+  </si>
+  <si>
+    <t>2#4#6#261</t>
+  </si>
+  <si>
+    <t>3#6#262</t>
+  </si>
+  <si>
+    <t>1#3#5#261</t>
+  </si>
+  <si>
+    <t>2#4#6#262</t>
+  </si>
+  <si>
+    <t>3#6#263</t>
+  </si>
+  <si>
+    <t>1#3#5#262</t>
+  </si>
+  <si>
+    <t>2#4#6#263</t>
+  </si>
+  <si>
+    <t>3#6#264</t>
+  </si>
+  <si>
+    <t>1#3#5#263</t>
+  </si>
+  <si>
+    <t>2#4#6#264</t>
+  </si>
+  <si>
+    <t>3#6#265</t>
+  </si>
+  <si>
+    <t>1#3#5#264</t>
+  </si>
+  <si>
+    <t>2#4#6#265</t>
+  </si>
+  <si>
+    <t>3#6#266</t>
+  </si>
+  <si>
+    <t>1#3#5#265</t>
+  </si>
+  <si>
+    <t>2#4#6#266</t>
+  </si>
+  <si>
+    <t>3#6#267</t>
+  </si>
+  <si>
+    <t>1#3#5#266</t>
+  </si>
+  <si>
+    <t>2#4#6#267</t>
+  </si>
+  <si>
+    <t>3#6#268</t>
+  </si>
+  <si>
+    <t>1#3#5#267</t>
+  </si>
+  <si>
+    <t>2#4#6#268</t>
+  </si>
+  <si>
+    <t>3#6#269</t>
+  </si>
+  <si>
+    <t>1#3#5#268</t>
+  </si>
+  <si>
+    <t>2#4#6#269</t>
+  </si>
+  <si>
+    <t>3#6#270</t>
+  </si>
+  <si>
+    <t>1#3#5#269</t>
+  </si>
+  <si>
+    <t>2#4#6#270</t>
+  </si>
+  <si>
+    <t>3#6#271</t>
+  </si>
+  <si>
+    <t>1#3#5#270</t>
+  </si>
+  <si>
+    <t>2#4#6#271</t>
+  </si>
+  <si>
+    <t>3#6#272</t>
+  </si>
+  <si>
+    <t>1#3#5#271</t>
+  </si>
+  <si>
+    <t>2#4#6#272</t>
+  </si>
+  <si>
+    <t>3#6#273</t>
+  </si>
+  <si>
+    <t>1#3#5#272</t>
+  </si>
+  <si>
+    <t>2#4#6#273</t>
+  </si>
+  <si>
+    <t>3#6#274</t>
+  </si>
+  <si>
+    <t>1#3#5#273</t>
+  </si>
+  <si>
+    <t>2#4#6#274</t>
+  </si>
+  <si>
+    <t>3#6#275</t>
+  </si>
+  <si>
+    <t>1#3#5#274</t>
+  </si>
+  <si>
+    <t>2#4#6#275</t>
+  </si>
+  <si>
+    <t>3#6#276</t>
+  </si>
+  <si>
+    <t>1#3#5#275</t>
+  </si>
+  <si>
+    <t>2#4#6#276</t>
+  </si>
+  <si>
+    <t>3#6#277</t>
+  </si>
+  <si>
+    <t>1#3#5#276</t>
+  </si>
+  <si>
+    <t>2#4#6#277</t>
+  </si>
+  <si>
+    <t>3#6#278</t>
+  </si>
+  <si>
+    <t>1#3#5#277</t>
+  </si>
+  <si>
+    <t>2#4#6#278</t>
+  </si>
+  <si>
+    <t>3#6#279</t>
+  </si>
+  <si>
+    <t>1#3#5#278</t>
+  </si>
+  <si>
+    <t>2#4#6#279</t>
+  </si>
+  <si>
+    <t>3#6#280</t>
+  </si>
+  <si>
+    <t>1#3#5#279</t>
+  </si>
+  <si>
+    <t>2#4#6#280</t>
+  </si>
+  <si>
+    <t>3#6#281</t>
+  </si>
+  <si>
+    <t>1#3#5#280</t>
+  </si>
+  <si>
+    <t>2#4#6#281</t>
+  </si>
+  <si>
+    <t>3#6#282</t>
+  </si>
+  <si>
+    <t>1#3#5#281</t>
+  </si>
+  <si>
+    <t>2#4#6#282</t>
+  </si>
+  <si>
+    <t>3#6#283</t>
+  </si>
+  <si>
+    <t>1#3#5#282</t>
+  </si>
+  <si>
+    <t>2#4#6#283</t>
+  </si>
+  <si>
+    <t>3#6#284</t>
+  </si>
+  <si>
+    <t>1#3#5#283</t>
+  </si>
+  <si>
+    <t>2#4#6#284</t>
+  </si>
+  <si>
+    <t>3#6#285</t>
+  </si>
+  <si>
+    <t>1#3#5#284</t>
+  </si>
+  <si>
+    <t>2#4#6#285</t>
+  </si>
+  <si>
+    <t>3#6#286</t>
+  </si>
+  <si>
+    <t>1#3#5#285</t>
+  </si>
+  <si>
+    <t>2#4#6#286</t>
+  </si>
+  <si>
+    <t>3#6#287</t>
+  </si>
+  <si>
+    <t>1#3#5#286</t>
+  </si>
+  <si>
+    <t>2#4#6#287</t>
+  </si>
+  <si>
+    <t>3#6#288</t>
+  </si>
+  <si>
+    <t>1#3#5#287</t>
+  </si>
+  <si>
+    <t>2#4#6#288</t>
+  </si>
+  <si>
+    <t>3#6#289</t>
+  </si>
+  <si>
+    <t>1#3#5#288</t>
+  </si>
+  <si>
+    <t>2#4#6#289</t>
+  </si>
+  <si>
+    <t>3#6#290</t>
+  </si>
+  <si>
+    <t>1#3#5#289</t>
+  </si>
+  <si>
+    <t>2#4#6#290</t>
+  </si>
+  <si>
+    <t>3#6#291</t>
+  </si>
+  <si>
+    <t>1#3#5#290</t>
+  </si>
+  <si>
+    <t>2#4#6#291</t>
+  </si>
+  <si>
+    <t>3#6#292</t>
+  </si>
+  <si>
+    <t>1#3#5#291</t>
+  </si>
+  <si>
+    <t>2#4#6#292</t>
+  </si>
+  <si>
+    <t>3#6#293</t>
+  </si>
+  <si>
+    <t>1#3#5#292</t>
+  </si>
+  <si>
+    <t>2#4#6#293</t>
+  </si>
+  <si>
+    <t>3#6#294</t>
+  </si>
+  <si>
+    <t>1#3#5#293</t>
+  </si>
+  <si>
+    <t>2#4#6#294</t>
+  </si>
+  <si>
+    <t>3#6#295</t>
+  </si>
+  <si>
+    <t>1#3#5#294</t>
+  </si>
+  <si>
+    <t>2#4#6#295</t>
+  </si>
+  <si>
+    <t>3#6#296</t>
+  </si>
+  <si>
+    <t>1#3#5#295</t>
+  </si>
+  <si>
+    <t>2#4#6#296</t>
+  </si>
+  <si>
+    <t>3#6#297</t>
+  </si>
+  <si>
+    <t>1#3#5#296</t>
+  </si>
+  <si>
+    <t>2#4#6#297</t>
+  </si>
+  <si>
+    <t>3#6#298</t>
+  </si>
+  <si>
+    <t>1#3#5#297</t>
+  </si>
+  <si>
+    <t>2#4#6#298</t>
+  </si>
+  <si>
+    <t>3#6#299</t>
+  </si>
+  <si>
+    <t>1#3#5#298</t>
+  </si>
+  <si>
+    <t>2#4#6#299</t>
+  </si>
+  <si>
+    <t>3#6#300</t>
+  </si>
+  <si>
+    <t>1#3#5#299</t>
+  </si>
+  <si>
+    <t>2#4#6#300</t>
+  </si>
+  <si>
+    <t>3#6#301</t>
+  </si>
+  <si>
+    <t>1#3#5#300</t>
+  </si>
+  <si>
+    <t>2#4#6#301</t>
+  </si>
+  <si>
+    <t>3#6#302</t>
+  </si>
+  <si>
+    <t>1#3#5#301</t>
+  </si>
+  <si>
+    <t>2#4#6#302</t>
+  </si>
+  <si>
+    <t>3#6#303</t>
+  </si>
+  <si>
+    <t>1#3#5#302</t>
+  </si>
+  <si>
+    <t>2#4#6#303</t>
+  </si>
+  <si>
+    <t>3#6#304</t>
+  </si>
+  <si>
+    <t>1#3#5#303</t>
+  </si>
+  <si>
+    <t>2#4#6#304</t>
+  </si>
+  <si>
+    <t>3#6#305</t>
+  </si>
+  <si>
+    <t>1#3#5#304</t>
+  </si>
+  <si>
+    <t>2#4#6#305</t>
+  </si>
+  <si>
+    <t>3#6#306</t>
+  </si>
+  <si>
+    <t>1#3#5#305</t>
+  </si>
+  <si>
+    <t>2#4#6#306</t>
+  </si>
+  <si>
+    <t>3#6#307</t>
+  </si>
+  <si>
+    <t>1#3#5#306</t>
+  </si>
+  <si>
+    <t>2#4#6#307</t>
+  </si>
+  <si>
+    <t>3#6#308</t>
+  </si>
+  <si>
+    <t>1#3#5#307</t>
+  </si>
+  <si>
+    <t>2#4#6#308</t>
+  </si>
+  <si>
+    <t>3#6#309</t>
+  </si>
+  <si>
+    <t>1#3#5#308</t>
+  </si>
+  <si>
+    <t>2#4#6#309</t>
+  </si>
+  <si>
+    <t>3#6#310</t>
+  </si>
+  <si>
+    <t>1#3#5#309</t>
+  </si>
+  <si>
+    <t>2#4#6#310</t>
+  </si>
+  <si>
+    <t>3#6#311</t>
+  </si>
+  <si>
+    <t>1#3#5#310</t>
+  </si>
+  <si>
+    <t>2#4#6#311</t>
+  </si>
+  <si>
+    <t>3#6#312</t>
+  </si>
+  <si>
+    <t>1#3#5#311</t>
+  </si>
+  <si>
+    <t>2#4#6#312</t>
+  </si>
+  <si>
+    <t>3#6#313</t>
+  </si>
+  <si>
+    <t>1#3#5#312</t>
+  </si>
+  <si>
+    <t>2#4#6#313</t>
+  </si>
+  <si>
+    <t>3#6#314</t>
+  </si>
+  <si>
+    <t>1#3#5#313</t>
+  </si>
+  <si>
+    <t>2#4#6#314</t>
+  </si>
+  <si>
+    <t>3#6#315</t>
+  </si>
+  <si>
+    <t>1#3#5#314</t>
+  </si>
+  <si>
+    <t>2#4#6#315</t>
+  </si>
+  <si>
+    <t>3#6#316</t>
+  </si>
+  <si>
+    <t>1#3#5#315</t>
+  </si>
+  <si>
+    <t>2#4#6#316</t>
+  </si>
+  <si>
+    <t>3#6#317</t>
+  </si>
+  <si>
+    <t>1#3#5#316</t>
+  </si>
+  <si>
+    <t>2#4#6#317</t>
+  </si>
+  <si>
+    <t>3#6#318</t>
+  </si>
+  <si>
+    <t>1#3#5#317</t>
+  </si>
+  <si>
+    <t>2#4#6#318</t>
+  </si>
+  <si>
+    <t>3#6#319</t>
+  </si>
+  <si>
+    <t>1#3#5#318</t>
+  </si>
+  <si>
+    <t>2#4#6#319</t>
+  </si>
+  <si>
+    <t>3#6#320</t>
+  </si>
+  <si>
+    <t>1#3#5#319</t>
+  </si>
+  <si>
+    <t>2#4#6#320</t>
+  </si>
+  <si>
+    <t>3#6#321</t>
+  </si>
+  <si>
+    <t>1#3#5#320</t>
+  </si>
+  <si>
+    <t>2#4#6#321</t>
+  </si>
+  <si>
+    <t>3#6#322</t>
+  </si>
+  <si>
+    <t>1#3#5#321</t>
+  </si>
+  <si>
+    <t>2#4#6#322</t>
+  </si>
+  <si>
+    <t>3#6#323</t>
+  </si>
+  <si>
+    <t>1#3#5#322</t>
+  </si>
+  <si>
+    <t>2#4#6#323</t>
+  </si>
+  <si>
+    <t>3#6#324</t>
+  </si>
+  <si>
+    <t>1#3#5#323</t>
+  </si>
+  <si>
+    <t>2#4#6#324</t>
+  </si>
+  <si>
+    <t>3#6#325</t>
+  </si>
+  <si>
+    <t>1#3#5#324</t>
+  </si>
+  <si>
+    <t>2#4#6#325</t>
+  </si>
+  <si>
+    <t>3#6#326</t>
+  </si>
+  <si>
+    <t>1#3#5#325</t>
+  </si>
+  <si>
+    <t>2#4#6#326</t>
+  </si>
+  <si>
+    <t>3#6#327</t>
+  </si>
+  <si>
+    <t>1#3#5#326</t>
+  </si>
+  <si>
+    <t>2#4#6#327</t>
+  </si>
+  <si>
+    <t>3#6#328</t>
+  </si>
+  <si>
+    <t>1#3#5#327</t>
+  </si>
+  <si>
+    <t>2#4#6#328</t>
+  </si>
+  <si>
+    <t>3#6#329</t>
+  </si>
+  <si>
+    <t>1#3#5#328</t>
+  </si>
+  <si>
+    <t>2#4#6#329</t>
+  </si>
+  <si>
+    <t>3#6#330</t>
+  </si>
+  <si>
+    <t>1#3#5#329</t>
+  </si>
+  <si>
+    <t>2#4#6#330</t>
+  </si>
+  <si>
+    <t>3#6#331</t>
+  </si>
+  <si>
+    <t>1#3#5#330</t>
+  </si>
+  <si>
+    <t>2#4#6#331</t>
+  </si>
+  <si>
+    <t>3#6#332</t>
+  </si>
+  <si>
+    <t>1#3#5#331</t>
+  </si>
+  <si>
+    <t>2#4#6#332</t>
+  </si>
+  <si>
+    <t>3#6#333</t>
+  </si>
+  <si>
+    <t>1#3#5#332</t>
+  </si>
+  <si>
+    <t>2#4#6#333</t>
+  </si>
+  <si>
+    <t>3#6#334</t>
+  </si>
+  <si>
+    <t>1#3#5#333</t>
+  </si>
+  <si>
+    <t>2#4#6#334</t>
+  </si>
+  <si>
+    <t>3#6#335</t>
+  </si>
+  <si>
+    <t>1#3#5#334</t>
+  </si>
+  <si>
+    <t>2#4#6#335</t>
+  </si>
+  <si>
+    <t>3#6#336</t>
+  </si>
+  <si>
+    <t>1#3#5#335</t>
+  </si>
+  <si>
+    <t>2#4#6#336</t>
+  </si>
+  <si>
+    <t>3#6#337</t>
+  </si>
+  <si>
+    <t>1#3#5#336</t>
+  </si>
+  <si>
+    <t>2#4#6#337</t>
+  </si>
+  <si>
+    <t>3#6#338</t>
+  </si>
+  <si>
+    <t>1#3#5#337</t>
+  </si>
+  <si>
+    <t>2#4#6#338</t>
+  </si>
+  <si>
+    <t>3#6#339</t>
+  </si>
+  <si>
+    <t>1#3#5#338</t>
   </si>
 </sst>
 </file>
@@ -3072,10 +3072,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -3087,7 +3087,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3102,114 +3208,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3223,8 +3222,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3239,7 +3239,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3251,31 +3341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3287,7 +3359,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3299,115 +3401,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3419,7 +3419,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3430,32 +3430,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3474,11 +3448,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3492,17 +3481,28 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3525,15 +3525,15 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3551,130 +3551,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4071,7 +4071,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
